--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF11BEC-F828-D741-AD0D-C2754214DFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0E01C-23D1-0341-8D8B-346B2FAF474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47140" yWindow="1400" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="321">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -749,6 +749,240 @@
   </si>
   <si>
     <t>전민균</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>jhue0901@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비지니스</t>
+  </si>
+  <si>
+    <t>전하율</t>
+  </si>
+  <si>
+    <t>pinkyeon7@gmail.com</t>
+  </si>
+  <si>
+    <t>박채연</t>
+  </si>
+  <si>
+    <t>jcskej0@hanmail.net</t>
+  </si>
+  <si>
+    <t>김은주</t>
+  </si>
+  <si>
+    <t>leesamchi0511@gmail.com</t>
+  </si>
+  <si>
+    <t>홍지민</t>
+  </si>
+  <si>
+    <t>lion5166@naver.com</t>
+  </si>
+  <si>
+    <t>김정연</t>
+  </si>
+  <si>
+    <t>b020305@naver.com</t>
+  </si>
+  <si>
+    <t>배성진</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t>허인</t>
+  </si>
+  <si>
+    <t>rlarkfka2255@naver.com</t>
+  </si>
+  <si>
+    <t>김가람</t>
+  </si>
+  <si>
+    <t>kimjh1165@naver.com</t>
+  </si>
+  <si>
+    <t>김재하</t>
+  </si>
+  <si>
+    <t>mik21366@naver.com</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>liz030404@naver.com</t>
+  </si>
+  <si>
+    <t>이선주</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>alsco92001@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>오민채</t>
+  </si>
+  <si>
+    <t>cjc0623@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과 콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>hug60600@gmail.com</t>
+  </si>
+  <si>
+    <t>황의건</t>
+  </si>
+  <si>
+    <t>mi88368836@gmail.com</t>
+  </si>
+  <si>
+    <t>신민서</t>
+  </si>
+  <si>
+    <t>dpdlvldzmfkd1218@naver.com</t>
+  </si>
+  <si>
+    <t>이다혜</t>
+  </si>
+  <si>
+    <t>kingdom980201@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각학과</t>
+  </si>
+  <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>ye_ji_02@naver.com</t>
+  </si>
+  <si>
+    <t>전예지</t>
+  </si>
+  <si>
+    <t>jenniferdy@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권도연 </t>
+  </si>
+  <si>
+    <t>seostone1018@gmail.com</t>
+  </si>
+  <si>
+    <t>서준석</t>
+  </si>
+  <si>
+    <t>detect5641@gmail.com</t>
+  </si>
+  <si>
+    <t>이주성</t>
+  </si>
+  <si>
+    <t>dialect11111@gmail.com</t>
+  </si>
+  <si>
+    <t>최하영</t>
+  </si>
+  <si>
+    <t>thdwlsrud0@naver.com</t>
+  </si>
+  <si>
+    <t>송진경</t>
+  </si>
+  <si>
+    <t>sochi1108@naver.com</t>
+  </si>
+  <si>
+    <t>이소정</t>
+  </si>
+  <si>
+    <t>jaehun081805@gmail.com</t>
+  </si>
+  <si>
+    <t>이재훈</t>
+  </si>
+  <si>
+    <t>herdy2154@naver.com</t>
+  </si>
+  <si>
+    <t>한녕균</t>
+  </si>
+  <si>
+    <t>leecm05102@gmail.com</t>
+  </si>
+  <si>
+    <t>이채민</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>tjdrjs04@naver.com</t>
+  </si>
+  <si>
+    <t>장성건</t>
+  </si>
+  <si>
+    <t>qufdldlrn@gmail.com</t>
+  </si>
+  <si>
+    <t>윤샛별</t>
+  </si>
+  <si>
+    <t>gee30901@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
   </si>
 </sst>
 </file>
@@ -788,7 +1022,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -976,11 +1210,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1028,6 +1340,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1416,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N79" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N115" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1306,11 +1643,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4645,6 +4982,1483 @@
       </c>
       <c r="N79" s="16"/>
     </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4">
+        <v>45573.073646620367</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="5">
+        <v>20243921</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="8">
+        <v>45573.372108738426</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="9">
+        <v>20246420</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4">
+        <v>45573.445958206023</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20227141</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="8">
+        <v>45573.450437384265</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="9">
+        <v>20227024</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J83" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4">
+        <v>45573.458073831018</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="5">
+        <v>20243062</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="8">
+        <v>45573.468014525468</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D85" s="9">
+        <v>20243612</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J85" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>45573.468818344903</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20212418</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="8">
+        <v>45573.478225393519</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="9">
+        <v>20192575</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="4">
+        <v>45573.4808571412</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D88" s="5">
+        <v>20242358</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M88" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="8">
+        <v>45573.487755254631</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D89" s="9">
+        <v>20243804</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J89" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4">
+        <v>45573.490982326388</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="5">
+        <v>20193810</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="8">
+        <v>45573.506993078699</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="9">
+        <v>20233808</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4">
+        <v>45573.522742118061</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" s="5">
+        <v>20243237</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M92" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="8">
+        <v>45573.527420555554</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="9">
+        <v>20245190</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J93" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M93" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>45573.530789594908</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="5">
+        <v>20245201</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="8">
+        <v>45573.534375717594</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="9">
+        <v>20215264</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4">
+        <v>45573.56826861111</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="5">
+        <v>20243065</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="8">
+        <v>45573.590844664352</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="9">
+        <v>20244126</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4">
+        <v>45573.601716979167</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="5">
+        <v>20243933</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="8">
+        <v>45573.629957025463</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="9">
+        <v>20243917</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4">
+        <v>45573.630837106481</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="5">
+        <v>20241065</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="8">
+        <v>45573.634888020832</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="9">
+        <v>20213839</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="4">
+        <v>45573.642134953705</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" s="5">
+        <v>20246206</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="8">
+        <v>45573.642953842587</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="9">
+        <v>20243227</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="4">
+        <v>45573.687224166672</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D104" s="5">
+        <v>20245230</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="8">
+        <v>45573.68933951389</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="9">
+        <v>20243051</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="17">
+        <v>45573.699237418987</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106" s="18">
+        <v>20182339</v>
+      </c>
+      <c r="E106" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F106" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K106" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="8">
+        <v>45573.701092199073</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D107" s="9">
+        <v>20242551</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J107" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="4">
+        <v>45573.717174780089</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D108" s="5">
+        <v>20242736</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="8">
+        <v>45573.794910856479</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="9">
+        <v>20193010</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J109" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="4">
+        <v>45573.816530613425</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D110" s="5">
+        <v>20242344</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J110" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="8">
+        <v>45573.83520376157</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D111" s="9">
+        <v>20242732</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J111" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="4">
+        <v>45573.837287534727</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D112" s="5">
+        <v>20241509</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J112" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="8">
+        <v>45573.839176284717</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="9">
+        <v>20235248</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="4">
+        <v>45573.859332361113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="5">
+        <v>20243929</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J114" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="21">
+        <v>45573.869430474537</v>
+      </c>
+      <c r="B115" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D115" s="22">
+        <v>20246238</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="23">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M115" s="24"/>
+      <c r="N115" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0E01C-23D1-0341-8D8B-346B2FAF474B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EF716-2D74-B846-8B99-A9A2D853C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47140" yWindow="1400" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="354">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -983,6 +983,105 @@
   </si>
   <si>
     <t>박예원</t>
+  </si>
+  <si>
+    <t>zmgofk1591@gmail.com</t>
+  </si>
+  <si>
+    <t>AI로봇융합</t>
+  </si>
+  <si>
+    <t>박하늘</t>
+  </si>
+  <si>
+    <t>sssm08155@gmail.com</t>
+  </si>
+  <si>
+    <t>윤희주</t>
+  </si>
+  <si>
+    <t>leeeunbi0717@naver.com</t>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>joazzzzz@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김진구</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>jungha051026@naver.com</t>
+  </si>
+  <si>
+    <t>윤정하</t>
+  </si>
+  <si>
+    <t>sehyeon0330@naver.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>cjh5779@naver.com</t>
+  </si>
+  <si>
+    <t>최정환</t>
+  </si>
+  <si>
+    <t>dongkyo4@gmail.com</t>
+  </si>
+  <si>
+    <t>이동교</t>
+  </si>
+  <si>
+    <t>csyoon1215@naver.com</t>
+  </si>
+  <si>
+    <t>천세윤</t>
+  </si>
+  <si>
+    <t>yhc0564@naver.com</t>
+  </si>
+  <si>
+    <t>윤홍채</t>
+  </si>
+  <si>
+    <t>narinsong3@gmail.com</t>
+  </si>
+  <si>
+    <t>송나린</t>
+  </si>
+  <si>
+    <t>jseonghun411@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영대학 </t>
+  </si>
+  <si>
+    <t>정성훈</t>
+  </si>
+  <si>
+    <t>yujin31836@gmail.com</t>
+  </si>
+  <si>
+    <t>최유진</t>
+  </si>
+  <si>
+    <t>simje9907@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1462,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1416,7 +1515,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N115" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N130" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1643,11 +1742,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6454,10 +6553,625 @@
       <c r="L115" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M115" s="24"/>
-      <c r="N115" s="25" t="s">
+      <c r="N115" s="24" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="4">
+        <v>45573.897000300931</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D116" s="5">
+        <v>20216731</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J116" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M116" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="8">
+        <v>45573.905119872681</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D117" s="9">
+        <v>20201070</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J117" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="4">
+        <v>45573.906526145831</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D118" s="5">
+        <v>20242340</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J118" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="8">
+        <v>45573.91564550926</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D119" s="9">
+        <v>20203213</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J119" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="4">
+        <v>45573.928237164349</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="5">
+        <v>20241605</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J120" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="8">
+        <v>45573.960863125001</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" s="9">
+        <v>20245213</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J121" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="4">
+        <v>45573.968950532406</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D122" s="5">
+        <v>20212609</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J122" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M122" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="8">
+        <v>45573.972293090279</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D123" s="9">
+        <v>20245262</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J123" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L123" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="4">
+        <v>45573.982086412041</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="5">
+        <v>20213241</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="8">
+        <v>45573.986201643522</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="9">
+        <v>20246292</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J125" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M125" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="4">
+        <v>45574.016277499999</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" s="5">
+        <v>20192931</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J126" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8">
+        <v>45574.12502619213</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="9">
+        <v>20246248</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J127" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="4">
+        <v>45574.200165682865</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="5">
+        <v>20243031</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M128" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="8">
+        <v>45574.442037025467</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D129" s="9">
+        <v>20243961</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J129" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="17">
+        <v>45574.475743969902</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="18">
+        <v>20242724</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I130" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J130" s="19">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K130" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M130" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N130" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1EF716-2D74-B846-8B99-A9A2D853C32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205844E0-90A5-C04B-A3B6-23C99A0BEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47140" yWindow="1400" windowWidth="44800" windowHeight="24700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="447">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1082,6 +1082,285 @@
   </si>
   <si>
     <t>심재민</t>
+  </si>
+  <si>
+    <t>kimminseon2102@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>baeseung1211@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT전공</t>
+  </si>
+  <si>
+    <t>배승혁</t>
+  </si>
+  <si>
+    <t>whovian2@naver.com</t>
+  </si>
+  <si>
+    <t>이새한</t>
+  </si>
+  <si>
+    <t>sf12nam@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">남유정 </t>
+  </si>
+  <si>
+    <t>77sunhwa@gmail.com</t>
+  </si>
+  <si>
+    <t>박선화</t>
+  </si>
+  <si>
+    <t>slaim7888@gmail.com</t>
+  </si>
+  <si>
+    <t>이준민</t>
+  </si>
+  <si>
+    <t>k1j40405@gmail.com</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>captaingogo@naver.com</t>
+  </si>
+  <si>
+    <t>김진안</t>
+  </si>
+  <si>
+    <t>gurybong@naver.com</t>
+  </si>
+  <si>
+    <t>최다원</t>
+  </si>
+  <si>
+    <t>8428kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김예나</t>
+  </si>
+  <si>
+    <t>snp040609@naver.com</t>
+  </si>
+  <si>
+    <t>박세나</t>
+  </si>
+  <si>
+    <t>buj5195193@naver.com</t>
+  </si>
+  <si>
+    <t>백유진</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>rhkwp0323@gmail.com</t>
+  </si>
+  <si>
+    <t>유도영</t>
+  </si>
+  <si>
+    <t>baeksa01@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>서휘도</t>
+  </si>
+  <si>
+    <t>sin50407899@gmail.com</t>
+  </si>
+  <si>
+    <t>신재화</t>
+  </si>
+  <si>
+    <t>cgim2421@gmail.com</t>
+  </si>
+  <si>
+    <t>김채윤</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>jym85362@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>유수현</t>
+  </si>
+  <si>
+    <t>oepdwrtyy@gmail.com</t>
+  </si>
+  <si>
+    <t>강종현</t>
+  </si>
+  <si>
+    <t>woosm050530@gmail.com</t>
+  </si>
+  <si>
+    <t>우수민</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>mjys9155@gmail.com</t>
+  </si>
+  <si>
+    <t>sally200408@gmail.com</t>
+  </si>
+  <si>
+    <t>박경화</t>
+  </si>
+  <si>
+    <t>h20241207@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>문소정</t>
+  </si>
+  <si>
+    <t>seeun1012123@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>bin_1014@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>김명빈</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>asrud8755@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>wlduddember6@gmail.com</t>
+  </si>
+  <si>
+    <t>이지영</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>khi031127@naver.com</t>
+  </si>
+  <si>
+    <t>김현일</t>
+  </si>
+  <si>
+    <t>limjh3027@naver.com</t>
+  </si>
+  <si>
+    <t>임종현</t>
+  </si>
+  <si>
+    <t>20242528@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>석진영</t>
+  </si>
+  <si>
+    <t>eung4077@gmail.com</t>
+  </si>
+  <si>
+    <t>강은결</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1400,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1269,57 +1548,14 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1332,66 +1568,16 @@
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
+      <bottom style="thin">
         <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF442F65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF8F9FA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1438,34 +1624,6 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1515,7 +1673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N130" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N174" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1742,11 +1900,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4703,7 +4861,7 @@
       </c>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="8">
         <v>45572.967427488431</v>
       </c>
@@ -4745,7 +4903,7 @@
       </c>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>45572.969477395833</v>
       </c>
@@ -4787,7 +4945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="8">
         <v>45572.989050763892</v>
       </c>
@@ -4829,7 +4987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>45572.997017152782</v>
       </c>
@@ -4871,7 +5029,7 @@
       </c>
       <c r="N74" s="7"/>
     </row>
-    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="8">
         <v>45573.006477337964</v>
       </c>
@@ -4913,7 +5071,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>45573.006718923614</v>
       </c>
@@ -5040,48 +5198,48 @@
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="13">
+      <c r="A79" s="8">
         <v>45573.031535046292</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="9">
         <v>20203425</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="14" t="s">
+      <c r="G79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I79" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J79" s="15">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="K79" s="14" t="s">
+      <c r="I79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K79" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L79" s="14" t="s">
+      <c r="L79" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M79" s="14" t="s">
+      <c r="M79" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="16"/>
-    </row>
-    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>45573.073646620367</v>
       </c>
@@ -5122,7 +5280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="8">
         <v>45573.372108738426</v>
       </c>
@@ -5163,7 +5321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>45573.445958206023</v>
       </c>
@@ -5204,7 +5362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="8">
         <v>45573.450437384265</v>
       </c>
@@ -5245,7 +5403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>45573.458073831018</v>
       </c>
@@ -5286,7 +5444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="8">
         <v>45573.468014525468</v>
       </c>
@@ -5327,7 +5485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>45573.468818344903</v>
       </c>
@@ -5368,7 +5526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="8">
         <v>45573.478225393519</v>
       </c>
@@ -5409,7 +5567,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>45573.4808571412</v>
       </c>
@@ -5450,7 +5608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="8">
         <v>45573.487755254631</v>
       </c>
@@ -5491,7 +5649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>45573.490982326388</v>
       </c>
@@ -5532,7 +5690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="8">
         <v>45573.506993078699</v>
       </c>
@@ -5573,7 +5731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>45573.522742118061</v>
       </c>
@@ -5614,7 +5772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="8">
         <v>45573.527420555554</v>
       </c>
@@ -5655,7 +5813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>45573.530789594908</v>
       </c>
@@ -5696,7 +5854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="8">
         <v>45573.534375717594</v>
       </c>
@@ -5737,7 +5895,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>45573.56826861111</v>
       </c>
@@ -5778,7 +5936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="8">
         <v>45573.590844664352</v>
       </c>
@@ -5819,7 +5977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>45573.601716979167</v>
       </c>
@@ -5860,7 +6018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="8">
         <v>45573.629957025463</v>
       </c>
@@ -5901,7 +6059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>45573.630837106481</v>
       </c>
@@ -5942,7 +6100,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="8">
         <v>45573.634888020832</v>
       </c>
@@ -5983,7 +6141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>45573.642134953705</v>
       </c>
@@ -6024,7 +6182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="8">
         <v>45573.642953842587</v>
       </c>
@@ -6065,7 +6223,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>45573.687224166672</v>
       </c>
@@ -6106,7 +6264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="8">
         <v>45573.68933951389</v>
       </c>
@@ -6147,48 +6305,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="17">
+    <row r="106" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="4">
         <v>45573.699237418987</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D106" s="18">
+      <c r="D106" s="5">
         <v>20182339</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F106" s="18" t="s">
+      <c r="F106" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G106" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H106" s="18" t="s">
+      <c r="G106" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I106" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J106" s="19">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="K106" s="18" t="s">
+      <c r="I106" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J106" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K106" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L106" s="18" t="s">
+      <c r="L106" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N106" s="20" t="s">
+      <c r="N106" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="8">
         <v>45573.701092199073</v>
       </c>
@@ -6229,7 +6387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>45573.717174780089</v>
       </c>
@@ -6270,7 +6428,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="8">
         <v>45573.794910856479</v>
       </c>
@@ -6311,7 +6469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>45573.816530613425</v>
       </c>
@@ -6352,7 +6510,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="8">
         <v>45573.83520376157</v>
       </c>
@@ -6393,7 +6551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>45573.837287534727</v>
       </c>
@@ -6434,7 +6592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="8">
         <v>45573.839176284717</v>
       </c>
@@ -6475,7 +6633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>45573.859332361113</v>
       </c>
@@ -6516,48 +6674,48 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="21">
+    <row r="115" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="8">
         <v>45573.869430474537</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B115" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="C115" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D115" s="22">
+      <c r="D115" s="9">
         <v>20246238</v>
       </c>
-      <c r="E115" s="22" t="s">
+      <c r="E115" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="F115" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="22" t="s">
+      <c r="F115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I115" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J115" s="23">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="K115" s="22" t="s">
+      <c r="I115" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J115" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K115" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L115" s="22" t="s">
+      <c r="L115" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N115" s="24" t="s">
+      <c r="N115" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>45573.897000300931</v>
       </c>
@@ -6598,7 +6756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="8">
         <v>45573.905119872681</v>
       </c>
@@ -6639,7 +6797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>45573.906526145831</v>
       </c>
@@ -6680,7 +6838,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="8">
         <v>45573.91564550926</v>
       </c>
@@ -6721,7 +6879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
         <v>45573.928237164349</v>
       </c>
@@ -6762,7 +6920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="8">
         <v>45573.960863125001</v>
       </c>
@@ -6803,7 +6961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
         <v>45573.968950532406</v>
       </c>
@@ -6844,7 +7002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="8">
         <v>45573.972293090279</v>
       </c>
@@ -6885,7 +7043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
         <v>45573.982086412041</v>
       </c>
@@ -6926,7 +7084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="8">
         <v>45573.986201643522</v>
       </c>
@@ -6967,7 +7125,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
         <v>45574.016277499999</v>
       </c>
@@ -7008,7 +7166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="8">
         <v>45574.12502619213</v>
       </c>
@@ -7049,7 +7207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
         <v>45574.200165682865</v>
       </c>
@@ -7090,7 +7248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="8">
         <v>45574.442037025467</v>
       </c>
@@ -7131,47 +7289,1850 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="17">
+    <row r="130" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="4">
         <v>45574.475743969902</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="18">
+      <c r="D130" s="5">
         <v>20242724</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F130" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" s="18" t="s">
+      <c r="F130" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I130" s="18" t="s">
+      <c r="I130" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J130" s="19">
+      <c r="J130" s="6">
         <v>0.52100000000000002</v>
       </c>
-      <c r="K130" s="18" t="s">
+      <c r="K130" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L130" s="18" t="s">
+      <c r="L130" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M130" s="18" t="s">
+      <c r="M130" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N130" s="25"/>
+    </row>
+    <row r="131" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="8">
+        <v>45574.512302881943</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="9">
+        <v>20242707</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I131" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A132" s="4">
+        <v>45574.517848958334</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="5">
+        <v>20246218</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A133" s="8">
+        <v>45574.552033298613</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D133" s="9">
+        <v>20235179</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A134" s="4">
+        <v>45574.554745578702</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D134" s="5">
+        <v>20191226</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J134" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M134" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A135" s="8">
+        <v>45574.565732106479</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="9">
+        <v>20233716</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L135" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
+        <v>45574.572338761573</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D136" s="5">
+        <v>20242956</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J136" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M136" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A137" s="8">
+        <v>45574.573798078709</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" s="9">
+        <v>20242428</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J137" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A138" s="4">
+        <v>45574.585244351852</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="5">
+        <v>20243408</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J138" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M138" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A139" s="8">
+        <v>45574.585775254629</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D139" s="9">
+        <v>20243311</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I139" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J139" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K139" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L139" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M139" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>45574.593273773149</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" s="5">
+        <v>20227136</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J140" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K140" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A141" s="8">
+        <v>45574.597964722227</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="9">
+        <v>20241017</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I141" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L141" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M141" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A142" s="4">
+        <v>45574.603657337968</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D142" s="5">
+        <v>20242957</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J142" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K142" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A143" s="8">
+        <v>45574.623701666671</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="9">
+        <v>20192721</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J143" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K143" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M143" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A144" s="4">
+        <v>45574.623851898148</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D144" s="5">
+        <v>20214116</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J144" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K144" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M144" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A145" s="8">
+        <v>45574.631708414352</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="9">
+        <v>20235210</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J145" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K145" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A146" s="4">
+        <v>45574.641604456017</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="5">
+        <v>20205188</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J146" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K146" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M146" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A147" s="8">
+        <v>45574.64945261574</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D147" s="9">
+        <v>20202538</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K147" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A148" s="4">
+        <v>45574.664771469907</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" s="5">
+        <v>20241517</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J148" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M148" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A149" s="8">
+        <v>45574.670173194449</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D149" s="9">
+        <v>20213609</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J149" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K149" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L149" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A150" s="4">
+        <v>45574.670536585647</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150" s="5">
+        <v>20207089</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J150" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K150" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A151" s="8">
+        <v>45574.681203298613</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D151" s="9">
+        <v>20245154</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J151" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A152" s="4">
+        <v>45574.685165416668</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D152" s="5">
+        <v>20243234</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J152" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M152" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A153" s="8">
+        <v>45574.704574953706</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D153" s="9">
+        <v>20241003</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J153" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K153" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A154" s="4">
+        <v>45574.712043738429</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D154" s="5">
+        <v>20243630</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J154" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K154" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A155" s="8">
+        <v>45574.733061319443</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D155" s="9">
+        <v>20246715</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J155" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K155" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A156" s="4">
+        <v>45574.746773159721</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D156" s="5">
+        <v>20241044</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J156" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K156" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A157" s="8">
+        <v>45574.751228090274</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" s="9">
+        <v>20212818</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J157" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K157" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A158" s="4">
+        <v>45574.762014618056</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="5">
+        <v>20241207</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J158" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K158" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L158" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M158" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A159" s="8">
+        <v>45574.768828958331</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D159" s="9">
+        <v>20241068</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J159" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K159" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A160" s="4">
+        <v>45574.773544560187</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20232728</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J160" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K160" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L160" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A161" s="8">
+        <v>45574.787954363426</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D161" s="9">
+        <v>20245161</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J161" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A162" s="4">
+        <v>45574.790398229168</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D162" s="5">
+        <v>20202706</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J162" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L162" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M162" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A163" s="8">
+        <v>45574.797771087964</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D163" s="9">
+        <v>20243223</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J163" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A164" s="4">
+        <v>45574.823067881945</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D164" s="5">
+        <v>20222606</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J164" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L164" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M164" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A165" s="8">
+        <v>45574.825758611114</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D165" s="9">
+        <v>20246639</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J165" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>45574.828692951385</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D166" s="5">
+        <v>20217096</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J166" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K166" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L166" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="8">
+        <v>45574.830223564815</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D167" s="9">
+        <v>20215269</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J167" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A168" s="4">
+        <v>45574.842473344906</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D168" s="5">
+        <v>20246232</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J168" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K168" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L168" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A169" s="8">
+        <v>45574.854385914354</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D169" s="9">
+        <v>20242430</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G169" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A170" s="4">
+        <v>45574.868538356481</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D170" s="5">
+        <v>20242528</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L170" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A171" s="8">
+        <v>45574.871610740738</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" s="9">
+        <v>20242201</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F171" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K171" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N171" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A172" s="4">
+        <v>45574.88697655093</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20241077</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A173" s="8">
+        <v>45574.901439421301</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D173" s="9">
+        <v>20192616</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F173" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I173" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J173" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="13" x14ac:dyDescent="0.15">
+      <c r="A174" s="13">
+        <v>45574.907138692128</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" s="14">
+        <v>20217035</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I174" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" s="15">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K174" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L174" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M174" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205844E0-90A5-C04B-A3B6-23C99A0BEE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B95922-8C02-914C-911A-8CD8502CEBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="495">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1361,6 +1361,150 @@
   </si>
   <si>
     <t>김수영</t>
+  </si>
+  <si>
+    <t>010726kjm@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>raon2812@naver.com</t>
+  </si>
+  <si>
+    <t>최라온</t>
+  </si>
+  <si>
+    <t>tjwjddn1130@naver.com</t>
+  </si>
+  <si>
+    <t>서정우</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>hizero0223@naver.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>jangjunhyeok1001@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>장준혁</t>
+  </si>
+  <si>
+    <t>lucy1004486@naver.com</t>
+  </si>
+  <si>
+    <t>김소연</t>
+  </si>
+  <si>
+    <t>kayla1071702@gmail.com</t>
+  </si>
+  <si>
+    <t>임혜빈</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>leesy470666@gmail.com</t>
+  </si>
+  <si>
+    <t>이수용</t>
+  </si>
+  <si>
+    <t>ertyhx3@gmail.com</t>
+  </si>
+  <si>
+    <t>김미소</t>
+  </si>
+  <si>
+    <t>mongsik5@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>sengyu0805@gmail.com</t>
+  </si>
+  <si>
+    <t>나선아</t>
+  </si>
+  <si>
+    <t>a52154309@gmail.com</t>
+  </si>
+  <si>
+    <t>황우진</t>
+  </si>
+  <si>
+    <t>hje10314@naver.com</t>
+  </si>
+  <si>
+    <t>한지은</t>
+  </si>
+  <si>
+    <t>bread0808@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>gmlfkr6241@naver.com</t>
+  </si>
+  <si>
+    <t>한희락</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>이예림</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1544,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1573,11 +1717,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1622,6 +1805,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,7 +1872,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N174" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N196" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -1900,11 +2099,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:N196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9134,6 +9333,909 @@
         <v>53</v>
       </c>
     </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="8">
+        <v>45574.912865358798</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D175" s="9">
+        <v>20203513</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G175" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J175" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="4">
+        <v>45574.919619374996</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D176" s="5">
+        <v>20242751</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J176" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="8">
+        <v>45574.929764189816</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" s="9">
+        <v>20213064</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G177" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J177" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="4">
+        <v>45574.951082349537</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D178" s="5">
+        <v>20243210</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J178" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="8">
+        <v>45574.956231932869</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" s="9">
+        <v>20243038</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="4">
+        <v>45574.963412777783</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D180" s="5">
+        <v>20242336</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J180" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K180" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L180" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M180" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="8">
+        <v>45575.042241608797</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D181" s="9">
+        <v>20235198</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J181" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="4">
+        <v>45575.058762071756</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D182" s="5">
+        <v>20193341</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J182" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K182" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="8">
+        <v>45575.061800821757</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D183" s="9">
+        <v>20232512</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J183" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="4">
+        <v>45575.072634988421</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" s="5">
+        <v>20242347</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J184" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K184" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M184" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="8">
+        <v>45575.073105358795</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D185" s="9">
+        <v>20243905</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J185" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K185" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="4">
+        <v>45575.074825069445</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" s="5">
+        <v>20243938</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J186" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L186" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N186" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="8">
+        <v>45575.095213599532</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D187" s="9">
+        <v>20242607</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J187" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K187" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L187" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="4">
+        <v>45575.130049050931</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" s="5">
+        <v>20202809</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J188" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L188" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="8">
+        <v>45575.400320185188</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D189" s="9">
+        <v>20193836</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J189" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K189" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="4">
+        <v>45575.418181006942</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D190" s="5">
+        <v>20245152</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J190" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K190" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N190" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="8">
+        <v>45575.426447743055</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D191" s="9">
+        <v>20243968</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F191" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H191" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J191" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K191" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="4">
+        <v>45575.433696655091</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D192" s="5">
+        <v>20222367</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J192" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="8">
+        <v>45575.443564895832</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D193" s="9">
+        <v>20246405</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F193" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J193" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K193" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="4">
+        <v>45575.453106087967</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" s="5">
+        <v>20246303</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J194" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K194" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L194" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N194" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="8">
+        <v>45575.483286030096</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D195" s="9">
+        <v>20205217</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I195" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J195" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K195" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L195" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="17">
+        <v>45575.49568043981</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C196" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D196" s="18">
+        <v>20193633</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F196" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I196" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J196" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K196" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M196" s="20"/>
+      <c r="N196" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B95922-8C02-914C-911A-8CD8502CEBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786053B6-9C2E-D345-A1BC-5E67D90F762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="652">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1505,6 +1505,477 @@
   </si>
   <si>
     <t>이예림</t>
+  </si>
+  <si>
+    <t>dlrua0105@gmail.com</t>
+  </si>
+  <si>
+    <t>이겸</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정치행정학과 </t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>thwls5541@gmail.com</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>dlwl0898@naver.com</t>
+  </si>
+  <si>
+    <t>이지원</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>joo061222@gmail.com</t>
+  </si>
+  <si>
+    <t>강민주</t>
+  </si>
+  <si>
+    <t>minheart7844@gmail.com</t>
+  </si>
+  <si>
+    <t>ㅁㅣ디어스쿨</t>
+  </si>
+  <si>
+    <t>권민</t>
+  </si>
+  <si>
+    <t>ggamy3637@naver.com</t>
+  </si>
+  <si>
+    <t>최효윤</t>
+  </si>
+  <si>
+    <t>phc5120@naver.com</t>
+  </si>
+  <si>
+    <t>박희철</t>
+  </si>
+  <si>
+    <t>changho0216@gmail.com</t>
+  </si>
+  <si>
+    <t>이창호</t>
+  </si>
+  <si>
+    <t>suji032091@naver.com</t>
+  </si>
+  <si>
+    <t>a01028349689@gmail.com</t>
+  </si>
+  <si>
+    <t>최다인</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>yoonbin0304@naver.com</t>
+  </si>
+  <si>
+    <t>최윤빈</t>
+  </si>
+  <si>
+    <t>kimhemi05@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜미</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>oys55736@gmail.com</t>
+  </si>
+  <si>
+    <t>사회 복지학부</t>
+  </si>
+  <si>
+    <t>오윤서</t>
+  </si>
+  <si>
+    <t>tjtkdwns0909@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>경영</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>kjinju0518@naver.com</t>
+  </si>
+  <si>
+    <t>김진주</t>
+  </si>
+  <si>
+    <t>sangim041113@gmail.com</t>
+  </si>
+  <si>
+    <t>용상임</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>김태희</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>빅데이터</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김영</t>
+  </si>
+  <si>
+    <t>minkyoung961@naver.com</t>
+  </si>
+  <si>
+    <t>융합과학수사학과</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>nurasun050718@naver.com</t>
+  </si>
+  <si>
+    <t>이주연</t>
+  </si>
+  <si>
+    <t>pumo22@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>minsung5342@naver.com</t>
+  </si>
+  <si>
+    <t>김민성</t>
+  </si>
+  <si>
+    <t>ella2005710@gmail.com</t>
+  </si>
+  <si>
+    <t>김송이</t>
+  </si>
+  <si>
+    <t>zorotod@naver.com</t>
+  </si>
+  <si>
+    <t>김승욱</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>tjdehs4809@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">국어국문학과 </t>
+  </si>
+  <si>
+    <t>최성돈</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>alyssa3257@naver.com</t>
+  </si>
+  <si>
+    <t>전영주</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>ms071207@naver.com</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>donghyun6652@gmail.com</t>
+  </si>
+  <si>
+    <t>한동현</t>
+  </si>
+  <si>
+    <t>vcx76613@gmail.com</t>
+  </si>
+  <si>
+    <t>황인태</t>
+  </si>
+  <si>
+    <t>jh2600646@naver.com</t>
+  </si>
+  <si>
+    <t>박지훈</t>
+  </si>
+  <si>
+    <t>4262cyj@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>thdl6767@naver.com</t>
+  </si>
+  <si>
+    <t>임소이</t>
+  </si>
+  <si>
+    <t>syckjjperfect9160@naver.com</t>
+  </si>
+  <si>
+    <t>송현우</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>solar08230@naver.com</t>
+  </si>
+  <si>
+    <t>안다빈</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>efgh124@naver.com</t>
+  </si>
+  <si>
+    <t>정윤서</t>
+  </si>
+  <si>
+    <t>seon93804@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">영어영문학과 </t>
+  </si>
+  <si>
+    <t>김인선</t>
+  </si>
+  <si>
+    <t>ddoyeong0509@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소영</t>
+  </si>
+  <si>
+    <t>reasonbeans@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>kmmyy209@gmail.com</t>
+  </si>
+  <si>
+    <t>김명은</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>aldidrhmdgkrry1234@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>김용우</t>
+  </si>
+  <si>
+    <t>0524psu@gmail.com</t>
+  </si>
+  <si>
+    <t>박상언</t>
+  </si>
+  <si>
+    <t>lhw2565@gmail.com</t>
+  </si>
+  <si>
+    <t>ujeong1030@gmail.com</t>
+  </si>
+  <si>
+    <t>최유정</t>
+  </si>
+  <si>
+    <t>wjsgkdms4@naver.com</t>
+  </si>
+  <si>
+    <t>전하은</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>zeus0010@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>nyo07@naver.com</t>
+  </si>
+  <si>
+    <t>윤효라</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>qwe92517@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>qudcksl1216@gmail.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>algus5661@naver.com</t>
+  </si>
+  <si>
+    <t>최미현</t>
+  </si>
+  <si>
+    <t>wweufc0913123456@gmail.com</t>
+  </si>
+  <si>
+    <t>지강민</t>
+  </si>
+  <si>
+    <t>kokoung12@naver.com</t>
+  </si>
+  <si>
+    <t>권호영</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +2015,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1756,11 +2227,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1819,8 +2316,20 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,7 +2381,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N196" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N271" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2099,11 +2608,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N196"/>
+  <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10231,10 +10740,3086 @@
       <c r="L196" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M196" s="20"/>
-      <c r="N196" s="21" t="s">
+      <c r="N196" s="20" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="8">
+        <v>45575.506585196759</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D197" s="9">
+        <v>20243236</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J197" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="4">
+        <v>45575.552579189811</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D198" s="5">
+        <v>20202431</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J198" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K198" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L198" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M198" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="8">
+        <v>45575.568710150459</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="9">
+        <v>20207065</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J199" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L199" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M199" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="4">
+        <v>45575.580802581018</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20202561</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J200" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K200" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M200" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="8">
+        <v>45575.587625381944</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D201" s="9">
+        <v>20243830</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J201" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M201" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="4">
+        <v>45575.595121678241</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202" s="5">
+        <v>20243801</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J202" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K202" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M202" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="8">
+        <v>45575.598108425926</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D203" s="9">
+        <v>20242503</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G203" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J203" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L203" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M203" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="4">
+        <v>45575.636852905096</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D204" s="5">
+        <v>20201733</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J204" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K204" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="8">
+        <v>45575.65305494213</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D205" s="9">
+        <v>20183824</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J205" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L205" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N205" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="4">
+        <v>45575.668780092594</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D206" s="5">
+        <v>20243941</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J206" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K206" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L206" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N206" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="8">
+        <v>45575.670572118055</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D207" s="9">
+        <v>20227157</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J207" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L207" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="4">
+        <v>45575.680349513888</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D208" s="5">
+        <v>20242635</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K208" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L208" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N208" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="8">
+        <v>45575.68783023148</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D209" s="9">
+        <v>20215158</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J209" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N209" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="4">
+        <v>45575.692973657409</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" s="5">
+        <v>20242138</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J210" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K210" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M210" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="8">
+        <v>45575.699042719905</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" s="9">
+        <v>20242112</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I211" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J211" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L211" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M211" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="17">
+        <v>45575.70132414352</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D212" s="18">
+        <v>20203820</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="F212" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I212" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J212" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K212" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N212" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="8">
+        <v>45575.727139224538</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D213" s="9">
+        <v>20242332</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J213" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L213" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N213" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="4">
+        <v>45575.76305819444</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D214" s="5">
+        <v>20244123</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J214" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K214" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L214" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M214" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="8">
+        <v>45575.818143703698</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D215" s="9">
+        <v>20222933</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I215" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J215" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L215" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N215" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="4">
+        <v>45575.841583692134</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D216" s="5">
+        <v>20232937</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K216" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L216" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N216" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="8">
+        <v>45575.855216215277</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D217" s="9">
+        <v>20235209</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I217" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J217" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N217" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="4">
+        <v>45575.889112060184</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D218" s="5">
+        <v>20246230</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J218" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K218" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L218" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="8">
+        <v>45575.895763680557</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D219" s="9">
+        <v>20243354</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J219" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K219" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L219" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N219" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="4">
+        <v>45575.927078055553</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D220" s="5">
+        <v>20215109</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J220" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K220" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M220" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="8">
+        <v>45575.936552812505</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D221" s="9">
+        <v>20202925</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J221" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K221" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M221" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="4">
+        <v>45575.945670162037</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20231706</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J222" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K222" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="8">
+        <v>45575.949852638892</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="9">
+        <v>20217015</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I223" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J223" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K223" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L223" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M223" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="4">
+        <v>45575.950823101855</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D224" s="5">
+        <v>20243414</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J224" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N224" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="8">
+        <v>45575.960895937504</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D225" s="9">
+        <v>20243636</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J225" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L225" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M225" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="4">
+        <v>45575.961628368052</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D226" s="5">
+        <v>20232527</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J226" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K226" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N226" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="8">
+        <v>45575.966268657408</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D227" s="9">
+        <v>20232311</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J227" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K227" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L227" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M227" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="4">
+        <v>45575.968690879628</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D228" s="5">
+        <v>20246222</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J228" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N228" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="8">
+        <v>45575.973136527777</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D229" s="9">
+        <v>20193508</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I229" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J229" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K229" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L229" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N229" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="4">
+        <v>45576.001364641204</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D230" s="5">
+        <v>20242925</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J230" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K230" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M230" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="8">
+        <v>45576.013541435183</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D231" s="9">
+        <v>20201103</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J231" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K231" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N231" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="4">
+        <v>45576.02269430556</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20242540</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J232" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K232" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N232" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="8">
+        <v>45576.026718321758</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" s="9">
+        <v>20246279</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G233" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I233" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K233" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N233" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="4">
+        <v>45576.030045462961</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D234" s="5">
+        <v>20242363</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J234" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K234" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M234" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="8">
+        <v>45576.048503738421</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D235" s="9">
+        <v>20193644</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I235" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J235" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K235" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L235" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M235" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="4">
+        <v>45576.050796111114</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D236" s="5">
+        <v>20246204</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I236" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J236" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K236" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M236" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="8">
+        <v>45576.114403784726</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D237" s="9">
+        <v>20246300</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H237" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I237" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J237" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K237" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L237" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M237" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="17">
+        <v>45576.373900347222</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C238" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D238" s="18">
+        <v>20246306</v>
+      </c>
+      <c r="E238" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="F238" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I238" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J238" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="K238" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L238" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M238" s="22"/>
+      <c r="N238" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="8">
+        <v>45576.444324247685</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D239" s="9">
+        <v>20213224</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I239" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J239" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K239" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L239" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M239" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="4">
+        <v>45576.447857638894</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D240" s="5">
+        <v>20243048</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I240" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J240" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K240" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N240" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="8">
+        <v>45576.48220377315</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D241" s="9">
+        <v>20235164</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H241" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I241" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J241" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K241" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L241" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N241" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="4">
+        <v>45576.483336863428</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D242" s="5">
+        <v>20243806</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H242" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J242" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K242" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L242" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M242" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="8">
+        <v>45576.51816950232</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D243" s="9">
+        <v>20202761</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I243" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J243" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L243" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N243" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="4">
+        <v>45576.54721793982</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D244" s="5">
+        <v>20246904</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I244" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J244" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K244" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L244" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M244" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="8">
+        <v>45576.548821736113</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" s="9">
+        <v>20232745</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="F245" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H245" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I245" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J245" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K245" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L245" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N245" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="4">
+        <v>45576.561422673607</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D246" s="5">
+        <v>20202335</v>
+      </c>
+      <c r="E246" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H246" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I246" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J246" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K246" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L246" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M246" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="8">
+        <v>45576.568890185183</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D247" s="9">
+        <v>20246932</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G247" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J247" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L247" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N247" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="4">
+        <v>45576.573681782407</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D248" s="5">
+        <v>20221717</v>
+      </c>
+      <c r="E248" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I248" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J248" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K248" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L248" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M248" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="8">
+        <v>45576.574843807874</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D249" s="9">
+        <v>20243715</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F249" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I249" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J249" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M249" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="4">
+        <v>45576.581910879628</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D250" s="5">
+        <v>20246282</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I250" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J250" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K250" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L250" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N250" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="8">
+        <v>45576.585824745373</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="D251" s="9">
+        <v>20221209</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="F251" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H251" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I251" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N251" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="4">
+        <v>45576.596964525466</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D252" s="5">
+        <v>20242424</v>
+      </c>
+      <c r="E252" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H252" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J252" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K252" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L252" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M252" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="8">
+        <v>45576.60058731481</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D253" s="9">
+        <v>20242339</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F253" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I253" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J253" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L253" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M253" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="4">
+        <v>45576.608086608801</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20231602</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I254" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J254" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K254" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L254" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="8">
+        <v>45576.626700659719</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D255" s="9">
+        <v>20192936</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F255" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H255" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I255" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J255" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L255" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M255" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="4">
+        <v>45576.627783969903</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D256" s="5">
+        <v>20241204</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H256" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I256" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J256" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K256" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L256" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N256" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="8">
+        <v>45576.655339305551</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D257" s="9">
+        <v>20243712</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F257" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H257" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I257" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J257" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M257" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="4">
+        <v>45576.657597731479</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D258" s="5">
+        <v>20242565</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I258" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J258" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K258" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L258" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N258" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="8">
+        <v>45576.662224502317</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D259" s="9">
+        <v>20232637</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F259" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G259" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H259" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I259" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J259" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L259" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M259" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="4">
+        <v>45576.67361380787</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D260" s="5">
+        <v>20202570</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J260" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K260" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N260" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="8">
+        <v>45576.691100891199</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261" s="9">
+        <v>20242737</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F261" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G261" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H261" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I261" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J261" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M261" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="4">
+        <v>45576.697753437504</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D262" s="5">
+        <v>20222530</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J262" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K262" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="8">
+        <v>45576.711857916671</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D263" s="9">
+        <v>20205148</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="F263" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I263" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L263" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="4">
+        <v>45576.74326393519</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D264" s="5">
+        <v>20217087</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J264" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M264" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="8">
+        <v>45576.744513923608</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D265" s="9">
+        <v>20205240</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F265" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I265" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J265" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L265" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="4">
+        <v>45576.759254074073</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20246271</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I266" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J266" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K266" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L266" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N266" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="8">
+        <v>45576.77259202546</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D267" s="9">
+        <v>20192926</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F267" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G267" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H267" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I267" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L267" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M267" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="4">
+        <v>45576.772701481481</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D268" s="5">
+        <v>20242355</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I268" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J268" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K268" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L268" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N268" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="8">
+        <v>45576.785658055553</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D269" s="9">
+        <v>20231539</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="F269" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H269" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I269" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J269" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K269" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L269" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M269" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="4">
+        <v>45576.795562361112</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" s="5">
+        <v>20202911</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H270" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J270" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K270" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L270" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M270" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="23">
+        <v>45576.809579583336</v>
+      </c>
+      <c r="B271" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="C271" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D271" s="24">
+        <v>20227078</v>
+      </c>
+      <c r="E271" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="F271" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I271" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J271" s="25">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K271" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L271" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M271" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N271" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786053B6-9C2E-D345-A1BC-5E67D90F762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907497F7-CD70-EB44-A79F-910FF25D9754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="703">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1976,6 +1976,160 @@
   </si>
   <si>
     <t>송예상</t>
+  </si>
+  <si>
+    <t>choag0830@naver.com</t>
+  </si>
+  <si>
+    <t>박초은</t>
+  </si>
+  <si>
+    <t>sbysooo@naver.com</t>
+  </si>
+  <si>
+    <t>신윤수</t>
+  </si>
+  <si>
+    <t>0214lily@naver.com</t>
+  </si>
+  <si>
+    <t>김가희</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>cobas67@naver.com</t>
+  </si>
+  <si>
+    <t>박근혁</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>yongwoo7701@gmail.com</t>
+  </si>
+  <si>
+    <t>유용우</t>
+  </si>
+  <si>
+    <t>915rlaalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>스마트Iot</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>ran0753@gmail.com</t>
+  </si>
+  <si>
+    <t>김태란</t>
+  </si>
+  <si>
+    <t>lucy011705@naver.com</t>
+  </si>
+  <si>
+    <t>이민정</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>donghunea@naver.com</t>
+  </si>
+  <si>
+    <t>한동훈</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>ginny1024@naver.com</t>
+  </si>
+  <si>
+    <t>김희원</t>
+  </si>
+  <si>
+    <t>jyb051128@gmail.com</t>
+  </si>
+  <si>
+    <t>전유빈</t>
+  </si>
+  <si>
+    <t>chjames2005@naver.com</t>
+  </si>
+  <si>
+    <t>최재현</t>
+  </si>
+  <si>
+    <t>hanyeong09@naver.com</t>
+  </si>
+  <si>
+    <t>이한영</t>
+  </si>
+  <si>
+    <t>chaecjb@naver.com</t>
+  </si>
+  <si>
+    <t>채희수</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>kgh1321@gmail.com</t>
+  </si>
+  <si>
+    <t>jeongminyoung13@gmail.com</t>
+  </si>
+  <si>
+    <t>정민영</t>
+  </si>
+  <si>
+    <t>경영대학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1985,7 +2139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2005,6 +2159,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2257,7 +2418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2322,7 +2483,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2330,6 +2490,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2381,7 +2545,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N271" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N297" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2608,11 +2772,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N271"/>
+  <dimension ref="A1:N297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E277" sqref="E277"/>
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12462,7 +12626,6 @@
       <c r="L238" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M238" s="22"/>
       <c r="N238" s="20" t="s">
         <v>22</v>
       </c>
@@ -13780,46 +13943,1112 @@
       </c>
     </row>
     <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A271" s="23">
+      <c r="A271" s="22">
         <v>45576.809579583336</v>
       </c>
-      <c r="B271" s="24" t="s">
+      <c r="B271" s="23" t="s">
         <v>650</v>
       </c>
-      <c r="C271" s="24" t="s">
+      <c r="C271" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D271" s="24">
+      <c r="D271" s="23">
         <v>20227078</v>
       </c>
-      <c r="E271" s="24" t="s">
+      <c r="E271" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="F271" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G271" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H271" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I271" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J271" s="25">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="K271" s="24" t="s">
+      <c r="F271" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I271" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J271" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K271" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L271" s="24" t="s">
+      <c r="L271" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M271" s="24" t="s">
+      <c r="M271" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N271" s="22"/>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="4">
+        <v>45576.82410247685</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D272" s="5">
+        <v>20246239</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J272" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K272" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L272" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="8">
+        <v>45576.854145578705</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D273" s="9">
+        <v>20227155</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="F273" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I273" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J273" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K273" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L273" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M273" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="4">
+        <v>45576.854657488424</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D274" s="5">
+        <v>20214104</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G274" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H274" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I274" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J274" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K274" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N274" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="8">
+        <v>45576.858728217594</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D275" s="9">
+        <v>20246648</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F275" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G275" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H275" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I275" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J275" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K275" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M275" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>45576.861442986112</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D276" s="5">
+        <v>20205165</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H276" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I276" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J276" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K276" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L276" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N276" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="8">
+        <v>45576.863211585645</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D277" s="9">
+        <v>20243813</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F277" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I277" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J277" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K277" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N277" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>45576.869226331022</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D278" s="5">
+        <v>20241515</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H278" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I278" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J278" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K278" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L278" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N278" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="8">
+        <v>45576.876753321761</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D279" s="9">
+        <v>20244130</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F279" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H279" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I279" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J279" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K279" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L279" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M279" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>45576.877338043982</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D280" s="5">
+        <v>20205133</v>
+      </c>
+      <c r="E280" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H280" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I280" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J280" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K280" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L280" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M280" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="8">
+        <v>45576.88479783565</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D281" s="9">
+        <v>20243741</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="F281" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H281" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I281" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J281" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K281" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M281" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>45576.89601916667</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D282" s="5">
+        <v>20243949</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H282" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I282" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J282" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K282" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N282" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="8">
+        <v>45576.902117060185</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" s="9">
+        <v>20245183</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="F283" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H283" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I283" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J283" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K283" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N283" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>45576.909659282406</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20243615</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I284" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J284" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K284" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L284" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N284" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="8">
+        <v>45576.926040069447</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="D285" s="9">
+        <v>20242997</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F285" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H285" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I285" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J285" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N285" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>45576.952283113424</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D286" s="5">
+        <v>20242128</v>
+      </c>
+      <c r="E286" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I286" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J286" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K286" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L286" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N286" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="8">
+        <v>45576.981531400466</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D287" s="9">
+        <v>20241082</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F287" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H287" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J287" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M287" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>45576.985615046295</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D288" s="5">
+        <v>20205267</v>
+      </c>
+      <c r="E288" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H288" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I288" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J288" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K288" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M288" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="8">
+        <v>45576.999107118056</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D289" s="9">
+        <v>20243826</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F289" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H289" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I289" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J289" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N289" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>45577.004841886577</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D290" s="5">
+        <v>20246233</v>
+      </c>
+      <c r="E290" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H290" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I290" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J290" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K290" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L290" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M290" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="8">
+        <v>45577.03246289352</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D291" s="9">
+        <v>20243646</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="F291" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H291" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I291" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K291" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L291" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N291" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>45577.045356770832</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D292" s="5">
+        <v>20243259</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J292" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K292" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N292" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="8">
+        <v>45577.047879513892</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D293" s="9">
+        <v>20203423</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="F293" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J293" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K293" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M293" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>45577.054306203703</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D294" s="5">
+        <v>20203046</v>
+      </c>
+      <c r="E294" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I294" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J294" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K294" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M294" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="8">
+        <v>45577.091703310187</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D295" s="9">
+        <v>20242628</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F295" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I295" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J295" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L295" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N295" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>45577.117909097222</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D296" s="5">
+        <v>20242914</v>
+      </c>
+      <c r="E296" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I296" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J296" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K296" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L296" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M296" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="22">
+        <v>45577.124638900466</v>
+      </c>
+      <c r="B297" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="C297" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D297" s="23">
+        <v>20246281</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>701</v>
+      </c>
+      <c r="F297" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I297" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J297" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K297" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M297" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N297" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907497F7-CD70-EB44-A79F-910FF25D9754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821807D8-C503-B340-AE26-7EB8C4C8C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="782">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2130,6 +2130,243 @@
   <si>
     <t>경영대학</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hijgc8282@naver.com</t>
+  </si>
+  <si>
+    <t>윤장근</t>
+  </si>
+  <si>
+    <t>ilylive999@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>kimdonghyeon0869@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>1kdcf@naver.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>stacy4036@naver.com</t>
+  </si>
+  <si>
+    <t>최하은</t>
+  </si>
+  <si>
+    <t>eojeongmin146@gmail.com</t>
+  </si>
+  <si>
+    <t>어정민</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>sinyewon12@gamail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">신예원 </t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>ksong1210@icloud.com</t>
+  </si>
+  <si>
+    <t>곽송</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김민찬 </t>
+  </si>
+  <si>
+    <t>jour0526@naver.com</t>
+  </si>
+  <si>
+    <t>정주아</t>
+  </si>
+  <si>
+    <t>soo060102@gmail.com</t>
+  </si>
+  <si>
+    <t>남궁수</t>
+  </si>
+  <si>
+    <t>123plokml123@gmail.com</t>
+  </si>
+  <si>
+    <t>지현배</t>
+  </si>
+  <si>
+    <t>ohsolbi050521@gmail.com</t>
+  </si>
+  <si>
+    <t>오솔비</t>
+  </si>
+  <si>
+    <t>cold050317@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬종</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터 테크</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>leedowon567@naver.com</t>
+  </si>
+  <si>
+    <t>이도원</t>
+  </si>
+  <si>
+    <t>goeunsue@naver.com</t>
+  </si>
+  <si>
+    <t>고은수</t>
+  </si>
+  <si>
+    <t>0223wltn@naver.com</t>
+  </si>
+  <si>
+    <t>홍지수</t>
+  </si>
+  <si>
+    <t>smartcindyya@gmail.com</t>
+  </si>
+  <si>
+    <t>박지현</t>
+  </si>
+  <si>
+    <t>chorok052150@naver.com</t>
+  </si>
+  <si>
+    <t>김미니</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트 IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>wizkids0418@naver.com</t>
+  </si>
+  <si>
+    <t>박혜인</t>
+  </si>
+  <si>
+    <t>tigerhaha1@naver.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>ckswo00@gmail.com</t>
+  </si>
+  <si>
+    <t>이찬재</t>
+  </si>
+  <si>
+    <t>obokboki@naver.com</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>cyj292513@naver.com</t>
+  </si>
+  <si>
+    <t>최영준</t>
+  </si>
+  <si>
+    <t>kbi70722@gmail.com</t>
+  </si>
+  <si>
+    <t>김병일</t>
+  </si>
+  <si>
+    <t>rivernine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>kmhhth5@gmail.com</t>
+  </si>
+  <si>
+    <t>최진호</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠 IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
   </si>
 </sst>
 </file>
@@ -2492,10 +2729,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2545,7 +2782,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N297" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N335" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -2772,11 +3009,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N297"/>
+  <dimension ref="A1:N335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14523,7 +14760,7 @@
       <c r="B285" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="C285" s="26" t="s">
+      <c r="C285" s="25" t="s">
         <v>702</v>
       </c>
       <c r="D285" s="9">
@@ -15048,7 +15285,1565 @@
       <c r="M297" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N297" s="25"/>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>45577.425884930555</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D298" s="5">
+        <v>20192560</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J298" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K298" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L298" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M298" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="8">
+        <v>45577.433898842588</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D299" s="9">
+        <v>20231621</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="F299" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H299" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I299" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J299" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L299" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M299" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4">
+        <v>45577.491470937501</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D300" s="5">
+        <v>20212912</v>
+      </c>
+      <c r="E300" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I300" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J300" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K300" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L300" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N300" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="8">
+        <v>45577.500528194447</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D301" s="9">
+        <v>20192901</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="F301" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I301" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J301" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L301" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M301" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>45577.506148356479</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D302" s="5">
+        <v>20227034</v>
+      </c>
+      <c r="E302" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H302" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I302" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J302" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K302" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L302" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N302" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="8">
+        <v>45577.507868680557</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" s="9">
+        <v>20242725</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="F303" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H303" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I303" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J303" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L303" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M303" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>45577.510825335645</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D304" s="5">
+        <v>20242824</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G304" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I304" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J304" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K304" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L304" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M304" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="8">
+        <v>45577.57067479167</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D305" s="9">
+        <v>20243821</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="F305" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H305" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I305" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J305" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L305" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M305" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>45577.576683136576</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D306" s="5">
+        <v>20202736</v>
+      </c>
+      <c r="E306" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I306" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J306" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K306" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N306" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="8">
+        <v>45577.577917048606</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D307" s="9">
+        <v>20242304</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F307" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G307" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H307" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I307" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J307" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L307" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M307" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>45577.590920138886</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D308" s="5">
+        <v>20212566</v>
+      </c>
+      <c r="E308" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I308" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J308" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K308" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L308" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N308" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="8">
+        <v>45577.597404363427</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D309" s="9">
+        <v>20242508</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F309" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H309" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J309" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L309" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N309" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4">
+        <v>45577.611659733797</v>
+      </c>
+      <c r="B310" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D310" s="5">
+        <v>20242576</v>
+      </c>
+      <c r="E310" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I310" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J310" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K310" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L310" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M310" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="8">
+        <v>45577.616226562503</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D311" s="9">
+        <v>20243710</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="F311" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I311" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L311" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N311" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="4">
+        <v>45577.617486238421</v>
+      </c>
+      <c r="B312" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D312" s="5">
+        <v>20245266</v>
+      </c>
+      <c r="E312" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G312" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H312" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I312" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J312" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K312" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L312" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N312" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="8">
+        <v>45577.622754780095</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>733</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D313" s="9">
+        <v>20246631</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="F313" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G313" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H313" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I313" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J313" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L313" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N313" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="4">
+        <v>45577.647720451394</v>
+      </c>
+      <c r="B314" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D314" s="5">
+        <v>20242518</v>
+      </c>
+      <c r="E314" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G314" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H314" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I314" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J314" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K314" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M314" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="8">
+        <v>45577.651941574077</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="D315" s="9">
+        <v>20203251</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="F315" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G315" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H315" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I315" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J315" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L315" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M315" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="4">
+        <v>45577.660753715274</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D316" s="5">
+        <v>20211625</v>
+      </c>
+      <c r="E316" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G316" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H316" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I316" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J316" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K316" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L316" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N316" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="8">
+        <v>45577.663317418977</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D317" s="9">
+        <v>20242907</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="F317" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G317" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H317" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I317" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J317" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L317" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N317" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="4">
+        <v>45577.690143854168</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D318" s="5">
+        <v>20243850</v>
+      </c>
+      <c r="E318" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I318" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J318" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K318" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M318" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="8">
+        <v>45577.712442986114</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D319" s="9">
+        <v>20245172</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="F319" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G319" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H319" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I319" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J319" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K319" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M319" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="4">
+        <v>45577.718538865738</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D320" s="5">
+        <v>20242307</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H320" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I320" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J320" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L320" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N320" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="8">
+        <v>45577.72177103009</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D321" s="9">
+        <v>20192986</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="F321" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G321" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H321" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I321" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J321" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K321" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L321" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N321" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="4">
+        <v>45577.722315405088</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D322" s="5">
+        <v>20205206</v>
+      </c>
+      <c r="E322" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G322" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H322" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I322" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J322" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K322" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L322" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N322" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="8">
+        <v>45577.72451349537</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D323" s="9">
+        <v>20205226</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="F323" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H323" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I323" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J323" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K323" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L323" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N323" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="4">
+        <v>45577.749977928237</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D324" s="5">
+        <v>20242327</v>
+      </c>
+      <c r="E324" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G324" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H324" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I324" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J324" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K324" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L324" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M324" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="8">
+        <v>45577.7719100463</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>759</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D325" s="9">
+        <v>20216716</v>
+      </c>
+      <c r="E325" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="F325" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G325" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H325" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I325" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J325" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K325" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L325" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N325" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="4">
+        <v>45577.79612024306</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D326" s="5">
+        <v>20217151</v>
+      </c>
+      <c r="E326" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G326" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H326" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I326" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J326" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K326" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L326" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M326" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="8">
+        <v>45577.822432442132</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D327" s="9">
+        <v>20241236</v>
+      </c>
+      <c r="E327" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="F327" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G327" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H327" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I327" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J327" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K327" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L327" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N327" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="4">
+        <v>45577.82675364583</v>
+      </c>
+      <c r="B328" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D328" s="5">
+        <v>20243008</v>
+      </c>
+      <c r="E328" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G328" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H328" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I328" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J328" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K328" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N328" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="8">
+        <v>45577.827450960649</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D329" s="9">
+        <v>20215187</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="F329" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G329" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H329" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I329" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J329" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K329" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N329" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="4">
+        <v>45577.840207928239</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D330" s="5">
+        <v>20242440</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G330" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H330" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I330" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K330" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L330" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N330" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="8">
+        <v>45577.849501805555</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D331" s="9">
+        <v>20191604</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G331" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H331" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I331" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J331" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K331" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L331" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M331" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="4">
+        <v>45577.851773043978</v>
+      </c>
+      <c r="B332" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D332" s="5">
+        <v>20212801</v>
+      </c>
+      <c r="E332" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G332" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H332" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I332" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J332" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K332" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L332" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N332" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="8">
+        <v>45577.856868078699</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D333" s="9">
+        <v>202044150</v>
+      </c>
+      <c r="E333" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G333" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H333" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I333" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J333" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K333" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N333" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="4">
+        <v>45577.861551643524</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="D334" s="5">
+        <v>20215239</v>
+      </c>
+      <c r="E334" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G334" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H334" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I334" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J334" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K334" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L334" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N334" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="22">
+        <v>45577.865750138888</v>
+      </c>
+      <c r="B335" s="23" t="s">
+        <v>780</v>
+      </c>
+      <c r="C335" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D335" s="23">
+        <v>20242901</v>
+      </c>
+      <c r="E335" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="F335" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H335" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I335" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="24">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K335" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L335" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M335" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N335" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821807D8-C503-B340-AE26-7EB8C4C8C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC612FE-F743-C346-983B-7F2DBF39C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="835">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2367,6 +2367,165 @@
   </si>
   <si>
     <t>강준우</t>
+  </si>
+  <si>
+    <t>uhan0802@gmail.com</t>
+  </si>
+  <si>
+    <t>이유한</t>
+  </si>
+  <si>
+    <t>wonda0322@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">글로벌학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">원다연 </t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>Psj050317@naver.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>a01053076907@gmail.com</t>
+  </si>
+  <si>
+    <t>원은성</t>
+  </si>
+  <si>
+    <t>hhy062700@naver.com</t>
+  </si>
+  <si>
+    <t>황희영</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>한림대학교</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>rlaalstjd051003@naver.com</t>
+  </si>
+  <si>
+    <t>eunjin6604__@naver.com</t>
+  </si>
+  <si>
+    <t>남은진</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>kyg031988@gmail.com</t>
+  </si>
+  <si>
+    <t>김윤겸</t>
+  </si>
+  <si>
+    <t>kate7633@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>dlalsmtd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>awinni@naver.com</t>
+  </si>
+  <si>
+    <t>우현진</t>
+  </si>
+  <si>
+    <t>pdh9467472@gmail.com</t>
+  </si>
+  <si>
+    <t>박두환</t>
+  </si>
+  <si>
+    <t>ksol902@naver.com</t>
+  </si>
+  <si>
+    <t>김은솔</t>
+  </si>
+  <si>
+    <t>ksy91637@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>youmakein@gmail.com</t>
+  </si>
+  <si>
+    <t>alwnd816@gmail.com</t>
+  </si>
+  <si>
+    <t>한재은</t>
+  </si>
+  <si>
+    <t>doheehana@naver.com</t>
+  </si>
+  <si>
+    <t>김도희</t>
+  </si>
+  <si>
+    <t>jdragon0151@gmail.com</t>
+  </si>
+  <si>
+    <t>신준용</t>
+  </si>
+  <si>
+    <t>rlaskrud0917@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학전공</t>
+  </si>
+  <si>
+    <t>김나경</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>한민교</t>
   </si>
 </sst>
 </file>
@@ -2782,7 +2941,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N335" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N360" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3009,11 +3168,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N335"/>
+  <dimension ref="A1:N360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16843,7 +17002,1032 @@
       <c r="M335" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N335" s="26"/>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="4">
+        <v>45577.886154444444</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D336" s="5">
+        <v>20212555</v>
+      </c>
+      <c r="E336" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G336" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H336" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I336" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J336" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K336" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L336" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N336" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="8">
+        <v>45577.89683957176</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>785</v>
+      </c>
+      <c r="D337" s="9">
+        <v>20246414</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="F337" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H337" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I337" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J337" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K337" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L337" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M337" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="4">
+        <v>45577.914630127314</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D338" s="5">
+        <v>20234128</v>
+      </c>
+      <c r="E338" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H338" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I338" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J338" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K338" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L338" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M338" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="8">
+        <v>45577.915238182875</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D339" s="9">
+        <v>20242323</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="F339" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H339" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I339" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J339" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K339" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L339" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M339" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="4">
+        <v>45577.916237592595</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D340" s="5">
+        <v>20246927</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G340" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H340" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I340" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L340" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N340" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="8">
+        <v>45577.933307627318</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D341" s="9">
+        <v>20243971</v>
+      </c>
+      <c r="E341" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H341" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I341" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J341" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K341" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N341" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="4">
+        <v>45577.944540937504</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D342" s="5">
+        <v>20217097</v>
+      </c>
+      <c r="E342" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I342" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J342" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K342" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L342" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N342" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="8">
+        <v>45577.95804622685</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D343" s="9">
+        <v>20241010</v>
+      </c>
+      <c r="E343" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G343" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H343" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I343" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J343" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K343" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L343" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N343" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="4">
+        <v>45577.975327395834</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D344" s="5">
+        <v>20233408</v>
+      </c>
+      <c r="E344" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G344" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I344" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J344" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K344" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L344" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N344" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="8">
+        <v>45577.978350972218</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D345" s="9">
+        <v>20242118</v>
+      </c>
+      <c r="E345" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H345" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I345" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J345" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K345" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L345" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N345" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="4">
+        <v>45577.989586481483</v>
+      </c>
+      <c r="B346" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D346" s="5">
+        <v>20231606</v>
+      </c>
+      <c r="E346" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G346" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I346" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J346" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K346" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L346" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="8">
+        <v>45577.991149444446</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D347" s="9">
+        <v>20242632</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G347" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H347" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I347" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J347" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K347" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L347" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M347" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="4">
+        <v>45578.000277800922</v>
+      </c>
+      <c r="B348" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D348" s="5">
+        <v>20227143</v>
+      </c>
+      <c r="E348" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I348" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J348" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K348" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L348" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="8">
+        <v>45578.001850162036</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D349" s="9">
+        <v>20245207</v>
+      </c>
+      <c r="E349" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G349" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H349" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I349" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J349" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K349" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M349" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="4">
+        <v>45578.016855185182</v>
+      </c>
+      <c r="B350" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D350" s="5">
+        <v>20172719</v>
+      </c>
+      <c r="E350" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G350" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I350" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J350" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K350" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L350" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N350" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="8">
+        <v>45578.030259293984</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D351" s="9">
+        <v>20243215</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="F351" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G351" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H351" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I351" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J351" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K351" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L351" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N351" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="4">
+        <v>45578.045317569442</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D352" s="5">
+        <v>20205139</v>
+      </c>
+      <c r="E352" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G352" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I352" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J352" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L352" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N352" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="8">
+        <v>45578.045896180556</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D353" s="9">
+        <v>20241106</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G353" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H353" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I353" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J353" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K353" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N353" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="4">
+        <v>45578.048791168985</v>
+      </c>
+      <c r="B354" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D354" s="5">
+        <v>20233060</v>
+      </c>
+      <c r="E354" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G354" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H354" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I354" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J354" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L354" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N354" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="8">
+        <v>45578.062672858796</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D355" s="9">
+        <v>20246215</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="F355" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G355" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H355" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I355" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J355" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K355" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N355" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="4">
+        <v>45578.102121458331</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D356" s="5">
+        <v>20205195</v>
+      </c>
+      <c r="E356" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G356" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H356" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I356" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J356" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N356" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="8">
+        <v>45578.102270972224</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D357" s="9">
+        <v>20221005</v>
+      </c>
+      <c r="E357" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="F357" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G357" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H357" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I357" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J357" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K357" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L357" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N357" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="4">
+        <v>45578.129512488427</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D358" s="5">
+        <v>20242981</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I358" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J358" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K358" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L358" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M358" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="8">
+        <v>45578.169236967587</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="D359" s="9">
+        <v>20192876</v>
+      </c>
+      <c r="E359" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G359" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H359" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I359" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J359" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K359" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L359" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N359" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="17">
+        <v>45578.172824097222</v>
+      </c>
+      <c r="B360" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="C360" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D360" s="18">
+        <v>20191106</v>
+      </c>
+      <c r="E360" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="F360" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H360" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I360" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J360" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K360" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M360" s="26"/>
+      <c r="N360" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC612FE-F743-C346-983B-7F2DBF39C1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBE927-6158-D040-9468-B81AC06D00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47440" yWindow="2660" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8560" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="863">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2526,6 +2526,90 @@
   </si>
   <si>
     <t>한민교</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>이기용</t>
+  </si>
+  <si>
+    <t>hanyejun339@gmail.com</t>
+  </si>
+  <si>
+    <t>한예준</t>
+  </si>
+  <si>
+    <t>junwoni20@gmail.com</t>
+  </si>
+  <si>
+    <t>이준원</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>kwonseoyoung0923@gmail.com</t>
+  </si>
+  <si>
+    <t>권서영</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>leejs7807@gmail.com</t>
+  </si>
+  <si>
+    <t>이종선</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>fkdlsalstjd@naver.com</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>iwhwigw836292@naver.com</t>
+  </si>
+  <si>
+    <t>김나현</t>
   </si>
 </sst>
 </file>
@@ -2941,7 +3025,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N360" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N374" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3168,11 +3252,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N360"/>
+  <dimension ref="A1:N374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E372" sqref="E372"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18024,8 +18108,582 @@
       <c r="L360" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M360" s="26"/>
       <c r="N360" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="8">
+        <v>45578.356527650467</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D361" s="9">
+        <v>20215199</v>
+      </c>
+      <c r="E361" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="F361" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H361" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I361" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J361" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="K361" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L361" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N361" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="4">
+        <v>45578.388833958335</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D362" s="5">
+        <v>20246649</v>
+      </c>
+      <c r="E362" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H362" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I362" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J362" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K362" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L362" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N362" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="8">
+        <v>45578.391230451394</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D363" s="9">
+        <v>20211630</v>
+      </c>
+      <c r="E363" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G363" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H363" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I363" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J363" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K363" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L363" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M363" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="4">
+        <v>45578.393854398149</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D364" s="5">
+        <v>20241083</v>
+      </c>
+      <c r="E364" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H364" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I364" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J364" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K364" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L364" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N364" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="8">
+        <v>45578.440047222219</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D365" s="9">
+        <v>20243606</v>
+      </c>
+      <c r="E365" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="F365" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G365" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H365" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I365" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J365" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K365" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M365" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="4">
+        <v>45578.445248912038</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D366" s="5">
+        <v>20203322</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I366" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J366" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K366" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L366" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M366" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="8">
+        <v>45578.468495173613</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D367" s="9">
+        <v>20213533</v>
+      </c>
+      <c r="E367" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G367" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H367" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I367" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J367" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K367" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L367" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N367" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>45578.475212395831</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D368" s="5">
+        <v>20241081</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I368" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J368" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K368" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N368" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="8">
+        <v>45578.48053429398</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D369" s="9">
+        <v>20223249</v>
+      </c>
+      <c r="E369" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G369" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H369" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I369" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J369" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K369" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L369" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N369" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="4">
+        <v>45578.493465196763</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D370" s="5">
+        <v>20241095</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I370" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J370" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L370" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N370" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="8">
+        <v>45578.580229942134</v>
+      </c>
+      <c r="B371" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D371" s="9">
+        <v>20192229</v>
+      </c>
+      <c r="E371" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="F371" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G371" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H371" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I371" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J371" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K371" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L371" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M371" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="4">
+        <v>45578.587278749997</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D372" s="5">
+        <v>20242924</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I372" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J372" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L372" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N372" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="8">
+        <v>45578.58873393519</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D373" s="9">
+        <v>20236705</v>
+      </c>
+      <c r="E373" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="F373" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G373" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I373" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J373" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K373" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L373" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N373" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="17">
+        <v>45578.604408819447</v>
+      </c>
+      <c r="B374" s="18" t="s">
+        <v>861</v>
+      </c>
+      <c r="C374" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D374" s="18">
+        <v>20243903</v>
+      </c>
+      <c r="E374" s="18" t="s">
+        <v>862</v>
+      </c>
+      <c r="F374" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G374" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H374" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I374" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J374" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K374" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L374" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M374" s="26"/>
+      <c r="N374" s="20" t="s">
         <v>58</v>
       </c>
     </row>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBE927-6158-D040-9468-B81AC06D00EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46237789-B4D9-1641-B0FC-9D19A7F4832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8560" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2780" yWindow="2660" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3744" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="931">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2610,6 +2610,210 @@
   </si>
   <si>
     <t>김나현</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>wnsrl2498@naver.com</t>
+  </si>
+  <si>
+    <t>김준기</t>
+  </si>
+  <si>
+    <t>ystop061012@naver.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>orienfun@gmail.com</t>
+  </si>
+  <si>
+    <t>이동화</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>qkhkasin17@naver.com</t>
+  </si>
+  <si>
+    <t>박가현</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>dlakrp731@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>leyy2k@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>coreykang3@naver.com</t>
+  </si>
+  <si>
+    <t>반도체공학</t>
+  </si>
+  <si>
+    <t>강동훈</t>
+  </si>
+  <si>
+    <t>kimguswls6685@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>jiah1622@naver.com</t>
+  </si>
+  <si>
+    <t>최지아</t>
+  </si>
+  <si>
+    <t>seungye04@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>정승예</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>dustinwon2005@gmail.com</t>
+  </si>
+  <si>
+    <t>원지현</t>
+  </si>
+  <si>
+    <t>minuhwang16@gmail.com</t>
+  </si>
+  <si>
+    <t>황민우</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>jwtp724@naver.com</t>
+  </si>
+  <si>
+    <t>박이선</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>happyrovot88@gmail.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>eunsoljj12@gmail.com</t>
+  </si>
+  <si>
+    <t>권은솔</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>5tmddk@naver.com</t>
+  </si>
+  <si>
+    <t>최승아</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3229,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N374" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N406" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3252,11 +3456,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N374"/>
+  <dimension ref="A1:N406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18682,8 +18886,1320 @@
       <c r="L374" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M374" s="26"/>
       <c r="N374" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="8">
+        <v>45578.619641469908</v>
+      </c>
+      <c r="B375" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D375" s="9">
+        <v>20193003</v>
+      </c>
+      <c r="E375" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="F375" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H375" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I375" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J375" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K375" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L375" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N375" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="4">
+        <v>45578.640179502312</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D376" s="5">
+        <v>20227093</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J376" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K376" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L376" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M376" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="8">
+        <v>45578.656618159723</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D377" s="9">
+        <v>20246628</v>
+      </c>
+      <c r="E377" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="F377" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G377" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H377" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I377" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J377" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K377" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L377" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N377" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="4">
+        <v>45578.662793564814</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D378" s="5">
+        <v>20245218</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J378" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K378" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M378" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="8">
+        <v>45578.66937581019</v>
+      </c>
+      <c r="B379" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D379" s="9">
+        <v>20243225</v>
+      </c>
+      <c r="E379" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="F379" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G379" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I379" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J379" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K379" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N379" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="4">
+        <v>45578.674752708335</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D380" s="5">
+        <v>20211059</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J380" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K380" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L380" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N380" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="8">
+        <v>45578.675853402776</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C381" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D381" s="9">
+        <v>20213035</v>
+      </c>
+      <c r="E381" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="F381" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G381" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I381" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J381" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K381" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L381" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N381" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="4">
+        <v>45578.677845995371</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D382" s="5">
+        <v>20232953</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J382" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K382" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L382" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M382" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="8">
+        <v>45578.699198993054</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D383" s="9">
+        <v>20242844</v>
+      </c>
+      <c r="E383" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G383" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H383" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I383" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J383" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K383" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L383" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N383" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="4">
+        <v>45578.704304120372</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D384" s="5">
+        <v>20231205</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J384" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K384" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L384" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N384" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="8">
+        <v>45578.70438841435</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D385" s="9">
+        <v>20231622</v>
+      </c>
+      <c r="E385" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="F385" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G385" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H385" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I385" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J385" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K385" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L385" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M385" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="4">
+        <v>45578.704891921298</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D386" s="5">
+        <v>20195225</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I386" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J386" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K386" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L386" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M386" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="8">
+        <v>45578.710554791665</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D387" s="9">
+        <v>20215115</v>
+      </c>
+      <c r="E387" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="F387" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G387" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H387" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I387" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J387" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K387" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M387" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="4">
+        <v>45578.72470421296</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20212971</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I388" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J388" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K388" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L388" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M388" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="8">
+        <v>45578.729495300926</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D389" s="9">
+        <v>20242306</v>
+      </c>
+      <c r="E389" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="F389" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G389" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I389" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J389" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K389" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L389" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N389" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="4">
+        <v>45578.737708738423</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D390" s="5">
+        <v>20203321</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I390" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J390" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K390" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L390" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N390" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="8">
+        <v>45578.740375532405</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D391" s="9">
+        <v>20242971</v>
+      </c>
+      <c r="E391" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="F391" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G391" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H391" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I391" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J391" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K391" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L391" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M391" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="4">
+        <v>45578.744304305554</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D392" s="5">
+        <v>20233301</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I392" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J392" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K392" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L392" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N392" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="8">
+        <v>45578.744441585644</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="C393" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D393" s="9">
+        <v>20215144</v>
+      </c>
+      <c r="E393" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="F393" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G393" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I393" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J393" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K393" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L393" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M393" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="4">
+        <v>45578.764729849536</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D394" s="5">
+        <v>20245271</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I394" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J394" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L394" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N394" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="8">
+        <v>45578.77320747685</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="D395" s="9">
+        <v>20233846</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="F395" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G395" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H395" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I395" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J395" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K395" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L395" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N395" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="4">
+        <v>45578.775014016202</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D396" s="5">
+        <v>20223010</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I396" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J396" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L396" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N396" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="8">
+        <v>45578.781653692131</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D397" s="9">
+        <v>20246747</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="F397" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G397" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H397" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I397" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J397" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K397" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L397" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N397" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="4">
+        <v>45578.781885682867</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D398" s="5">
+        <v>20243967</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I398" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J398" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L398" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M398" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="8">
+        <v>45578.789774050922</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="C399" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="D399" s="9">
+        <v>20203026</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="F399" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G399" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H399" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I399" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J399" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K399" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L399" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N399" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="4">
+        <v>45578.793432013888</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D400" s="5">
+        <v>20206504</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I400" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J400" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L400" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N400" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="8">
+        <v>45578.798768333334</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D401" s="9">
+        <v>20243007</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="F401" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G401" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H401" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I401" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J401" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K401" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L401" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M401" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="4">
+        <v>45578.813740995371</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C402" s="5">
+        <v>20242919</v>
+      </c>
+      <c r="D402" s="5">
+        <v>20242919</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I402" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J402" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L402" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M402" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="8">
+        <v>45578.820547048614</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D403" s="9">
+        <v>20245113</v>
+      </c>
+      <c r="E403" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="F403" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G403" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H403" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I403" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J403" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="K403" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L403" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N403" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="4">
+        <v>45578.822771724532</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D404" s="5">
+        <v>20242111</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I404" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J404" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L404" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M404" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="8">
+        <v>45578.825338796298</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D405" s="9">
+        <v>20192634</v>
+      </c>
+      <c r="E405" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="F405" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G405" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H405" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I405" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J405" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K405" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L405" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M405" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="17">
+        <v>45578.833702152777</v>
+      </c>
+      <c r="B406" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C406" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D406" s="18">
+        <v>20183006</v>
+      </c>
+      <c r="E406" s="18" t="s">
+        <v>930</v>
+      </c>
+      <c r="F406" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G406" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H406" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I406" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J406" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K406" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L406" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M406" s="26"/>
+      <c r="N406" s="20" t="s">
         <v>58</v>
       </c>
     </row>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46237789-B4D9-1641-B0FC-9D19A7F4832E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44F35C-9FC7-264B-97BB-0FA214211295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2660" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25760" yWindow="580" windowWidth="25760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="1033">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2814,6 +2814,312 @@
   </si>
   <si>
     <t>최홍서</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>hsjenny99@gmail.com</t>
+  </si>
+  <si>
+    <t>전소현</t>
+  </si>
+  <si>
+    <t>gusquddus20@naver.com</t>
+  </si>
+  <si>
+    <t>현병연</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>dahyeony410@gmail.com</t>
+  </si>
+  <si>
+    <t>윤다현</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>ekzkdi12@naver.com</t>
+  </si>
+  <si>
+    <t>박정민</t>
+  </si>
+  <si>
+    <t>creeper_a@naver.com</t>
+  </si>
+  <si>
+    <t>최대현</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>zxcod10@gmail.com</t>
+  </si>
+  <si>
+    <t>최원용</t>
+  </si>
+  <si>
+    <t>xodet0817@naver.com</t>
+  </si>
+  <si>
+    <t>문종윤</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>wjswlals14789@naver.com</t>
+  </si>
+  <si>
+    <t>환경생명공확과</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>sky0219msh@naver.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>jennydz@naver.com</t>
+  </si>
+  <si>
+    <t>허지수</t>
+  </si>
+  <si>
+    <t>yeonh990@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학전공</t>
+  </si>
+  <si>
+    <t>박현아</t>
+  </si>
+  <si>
+    <t>gchans0524@gmail.com</t>
+  </si>
+  <si>
+    <t>한기찬</t>
+  </si>
+  <si>
+    <t>tommy21940@gmail.com</t>
+  </si>
+  <si>
+    <t>양민혁</t>
+  </si>
+  <si>
+    <t>kmg0187@naver.com</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>oo3198@naver.com</t>
+  </si>
+  <si>
+    <t>심현진</t>
+  </si>
+  <si>
+    <t>kms050915@naver.com</t>
+  </si>
+  <si>
+    <t>강명수</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>sowon051125@naver.com</t>
+  </si>
+  <si>
+    <t>이소원</t>
+  </si>
+  <si>
+    <t>juna324a324@naver.com</t>
+  </si>
+  <si>
+    <t>디지털인문예술</t>
+  </si>
+  <si>
+    <t>정준우</t>
+  </si>
+  <si>
+    <t>seomina0503@naver.com</t>
+  </si>
+  <si>
+    <t>서민아</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>minnjae119@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사니언스학부</t>
+  </si>
+  <si>
+    <t>최민재</t>
+  </si>
+  <si>
+    <t>cheun0423@gmail.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>h20191240@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>홍이래</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>kangyein0810@gmail.com</t>
+  </si>
+  <si>
+    <t>강예인</t>
+  </si>
+  <si>
+    <t>inju7931@gmail.com</t>
+  </si>
+  <si>
+    <t>문인주</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>이수빈</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>dabinchoe05@gmail.com</t>
+  </si>
+  <si>
+    <t>최다빈</t>
+  </si>
+  <si>
+    <t>wooyoomilk@naver.com</t>
+  </si>
+  <si>
+    <t>우연준</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
   </si>
 </sst>
 </file>
@@ -3102,7 +3408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3179,6 +3485,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3229,7 +3538,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N406" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N455" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3456,11 +3765,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N406"/>
+  <dimension ref="A1:N455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C426" sqref="C426"/>
+      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D462" sqref="D462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -20198,10 +20507,2019 @@
       <c r="L406" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M406" s="26"/>
       <c r="N406" s="20" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="407" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="8">
+        <v>45578.841131921297</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D407" s="9">
+        <v>20243959</v>
+      </c>
+      <c r="E407" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="F407" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G407" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H407" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I407" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J407" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K407" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L407" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N407" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="4">
+        <v>45578.851873414351</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D408" s="5">
+        <v>20242101</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I408" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J408" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L408" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N408" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="8">
+        <v>45578.852008043978</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D409" s="9">
+        <v>20202641</v>
+      </c>
+      <c r="E409" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="F409" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G409" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H409" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I409" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J409" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K409" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L409" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M409" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="4">
+        <v>45578.855462094907</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D410" s="5">
+        <v>20245246</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I410" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J410" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L410" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M410" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="8">
+        <v>45578.859519247686</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D411" s="9">
+        <v>20227106</v>
+      </c>
+      <c r="E411" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="F411" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G411" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H411" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I411" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J411" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K411" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L411" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N411" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="4">
+        <v>45578.861576597221</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D412" s="5">
+        <v>20245169</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I412" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J412" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L412" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N412" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="8">
+        <v>45578.86499081018</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D413" s="9">
+        <v>20241728</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="F413" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G413" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H413" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I413" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J413" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K413" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L413" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M413" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="4">
+        <v>45578.874312777778</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D414" s="5">
+        <v>20233415</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I414" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J414" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L414" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M414" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="8">
+        <v>45578.886704004632</v>
+      </c>
+      <c r="B415" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D415" s="9">
+        <v>20246752</v>
+      </c>
+      <c r="E415" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="F415" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G415" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H415" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I415" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J415" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K415" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L415" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N415" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="4">
+        <v>45578.891058402776</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D416" s="5">
+        <v>20212927</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I416" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J416" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L416" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M416" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="417" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="8">
+        <v>45578.916062233795</v>
+      </c>
+      <c r="B417" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D417" s="9">
+        <v>20222715</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="F417" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G417" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H417" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I417" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J417" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K417" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N417" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="4">
+        <v>45578.922537199076</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D418" s="5">
+        <v>20242960</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I418" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J418" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L418" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N418" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="8">
+        <v>45578.925476770833</v>
+      </c>
+      <c r="B419" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D419" s="9">
+        <v>20194153</v>
+      </c>
+      <c r="E419" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="F419" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G419" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H419" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I419" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J419" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K419" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L419" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N419" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="420" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="4">
+        <v>45578.931009768523</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D420" s="5">
+        <v>20246942</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I420" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J420" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L420" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M420" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="8">
+        <v>45578.932844456023</v>
+      </c>
+      <c r="B421" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D421" s="9">
+        <v>20217135</v>
+      </c>
+      <c r="E421" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="F421" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G421" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H421" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I421" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J421" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K421" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L421" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M421" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="4">
+        <v>45578.935350150467</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D422" s="5">
+        <v>20203616</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I422" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J422" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K422" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L422" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N422" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="8">
+        <v>45578.935908009254</v>
+      </c>
+      <c r="B423" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D423" s="9">
+        <v>20197118</v>
+      </c>
+      <c r="E423" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="F423" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G423" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H423" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I423" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J423" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K423" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L423" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N423" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="4">
+        <v>45578.93671652778</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="D424" s="5">
+        <v>20213731</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I424" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J424" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K424" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L424" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M424" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="8">
+        <v>45578.946771423609</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="D425" s="9">
+        <v>20232938</v>
+      </c>
+      <c r="E425" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="F425" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G425" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H425" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I425" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J425" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K425" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L425" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N425" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="426" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="4">
+        <v>45578.950607465275</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D426" s="5">
+        <v>20201108</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I426" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J426" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K426" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L426" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M426" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="8">
+        <v>45578.955359328698</v>
+      </c>
+      <c r="B427" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D427" s="9">
+        <v>20213543</v>
+      </c>
+      <c r="E427" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="F427" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G427" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H427" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I427" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J427" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K427" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L427" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N427" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="4">
+        <v>45578.969765185189</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="D428" s="5">
+        <v>20233930</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I428" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J428" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K428" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L428" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N428" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="22">
+        <v>45578.972652673612</v>
+      </c>
+      <c r="B429" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="C429" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D429" s="23">
+        <v>20244152</v>
+      </c>
+      <c r="E429" s="23" t="s">
+        <v>978</v>
+      </c>
+      <c r="F429" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G429" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H429" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I429" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J429" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K429" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L429" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M429" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="4">
+        <v>45578.97842024306</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D430" s="5">
+        <v>20241054</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I430" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J430" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L430" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M430" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="8">
+        <v>45578.978603819443</v>
+      </c>
+      <c r="B431" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D431" s="9">
+        <v>20203802</v>
+      </c>
+      <c r="E431" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="F431" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G431" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H431" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I431" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J431" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K431" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L431" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N431" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="4">
+        <v>45578.985622129629</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>983</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D432" s="5">
+        <v>20245196</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>984</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I432" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J432" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L432" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N432" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="8">
+        <v>45578.991366527778</v>
+      </c>
+      <c r="B433" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D433" s="9">
+        <v>2024602</v>
+      </c>
+      <c r="E433" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F433" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G433" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H433" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I433" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J433" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K433" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L433" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M433" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="434" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="4">
+        <v>45578.996493159721</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D434" s="5">
+        <v>20242982</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I434" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J434" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K434" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L434" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N434" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="8">
+        <v>45579.007757685184</v>
+      </c>
+      <c r="B435" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D435" s="9">
+        <v>20243829</v>
+      </c>
+      <c r="E435" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="F435" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G435" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H435" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I435" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J435" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K435" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N435" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="4">
+        <v>45579.047388391205</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D436" s="5">
+        <v>20205182</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I436" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J436" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K436" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L436" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M436" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="8">
+        <v>45579.114413854171</v>
+      </c>
+      <c r="B437" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="C437" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="9">
+        <v>20191084</v>
+      </c>
+      <c r="E437" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="F437" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G437" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H437" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I437" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J437" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K437" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L437" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M437" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="4">
+        <v>45579.250268923613</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D438" s="5">
+        <v>20243238</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I438" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J438" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K438" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L438" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M438" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="8">
+        <v>45579.410284664351</v>
+      </c>
+      <c r="B439" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="C439" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D439" s="9">
+        <v>20192983</v>
+      </c>
+      <c r="E439" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="F439" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G439" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I439" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J439" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K439" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L439" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M439" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="4">
+        <v>45579.432147581014</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D440" s="5">
+        <v>20246244</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I440" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J440" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K440" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L440" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N440" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="8">
+        <v>45579.446922534727</v>
+      </c>
+      <c r="B441" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D441" s="9">
+        <v>20182436</v>
+      </c>
+      <c r="E441" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F441" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G441" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H441" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I441" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J441" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K441" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M441" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="4">
+        <v>45579.50938181713</v>
+      </c>
+      <c r="B442" s="5" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D442" s="5">
+        <v>20243257</v>
+      </c>
+      <c r="E442" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I442" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J442" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K442" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L442" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N442" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="8">
+        <v>45579.567272731481</v>
+      </c>
+      <c r="B443" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C443" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D443" s="9">
+        <v>20217152</v>
+      </c>
+      <c r="E443" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F443" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G443" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H443" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I443" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J443" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K443" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L443" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N443" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="4">
+        <v>45579.594861168982</v>
+      </c>
+      <c r="B444" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D444" s="5">
+        <v>20191240</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G444" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H444" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I444" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J444" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K444" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N444" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="8">
+        <v>45579.626404618059</v>
+      </c>
+      <c r="B445" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C445" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D445" s="9">
+        <v>20205162</v>
+      </c>
+      <c r="E445" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F445" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G445" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H445" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I445" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J445" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K445" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L445" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M445" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="4">
+        <v>45579.676605648143</v>
+      </c>
+      <c r="B446" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D446" s="5">
+        <v>20246603</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G446" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H446" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I446" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J446" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K446" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L446" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M446" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="8">
+        <v>45579.76498331019</v>
+      </c>
+      <c r="B447" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C447" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="D447" s="9">
+        <v>20195160</v>
+      </c>
+      <c r="E447" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F447" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G447" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H447" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I447" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J447" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K447" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L447" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M447" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="4">
+        <v>45579.797817916668</v>
+      </c>
+      <c r="B448" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D448" s="5">
+        <v>20243064</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G448" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H448" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J448" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K448" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L448" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N448" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="8">
+        <v>45579.824685752319</v>
+      </c>
+      <c r="B449" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C449" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D449" s="9">
+        <v>20203635</v>
+      </c>
+      <c r="E449" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F449" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G449" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H449" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I449" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J449" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K449" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L449" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M449" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="450" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="4">
+        <v>45579.847965706023</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D450" s="5">
+        <v>20243803</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I450" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J450" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N450" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="8">
+        <v>45579.885963321758</v>
+      </c>
+      <c r="B451" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C451" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="D451" s="9">
+        <v>20205173</v>
+      </c>
+      <c r="E451" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F451" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G451" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H451" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I451" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J451" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K451" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L451" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N451" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="4">
+        <v>45579.888064918981</v>
+      </c>
+      <c r="B452" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D452" s="5">
+        <v>20246780</v>
+      </c>
+      <c r="E452" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H452" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I452" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J452" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K452" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L452" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M452" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="453" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="8">
+        <v>45579.896653553238</v>
+      </c>
+      <c r="B453" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C453" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D453" s="9">
+        <v>20242988</v>
+      </c>
+      <c r="E453" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F453" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G453" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H453" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I453" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J453" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K453" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L453" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M453" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="4">
+        <v>45579.902414027776</v>
+      </c>
+      <c r="B454" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D454" s="5">
+        <v>20242992</v>
+      </c>
+      <c r="E454" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H454" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I454" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J454" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K454" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M454" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="22">
+        <v>45579.914416678235</v>
+      </c>
+      <c r="B455" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C455" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="D455" s="23">
+        <v>20246770</v>
+      </c>
+      <c r="E455" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F455" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G455" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H455" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I455" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J455" s="26">
+        <v>0.72</v>
+      </c>
+      <c r="K455" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L455" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M455" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N455" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44F35C-9FC7-264B-97BB-0FA214211295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC92D6-A106-BD4F-A7D3-7B3B99304F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25760" yWindow="580" windowWidth="25760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4900" yWindow="900" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4553" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="1063">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3120,6 +3120,96 @@
   </si>
   <si>
     <t>전희성</t>
+  </si>
+  <si>
+    <t>kdhmonkeyking@gmail.com</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>abcchocoo111@gmail.com</t>
+  </si>
+  <si>
+    <t>김기원</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.com</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>rer220@naver.com</t>
+  </si>
+  <si>
+    <t>김대명</t>
+  </si>
+  <si>
+    <t>jjy021026@gmail.com</t>
+  </si>
+  <si>
+    <t>전지환</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>xormr1505@naver.com</t>
+  </si>
+  <si>
+    <t>박찬원</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>osmokroyal1@gmail.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>corki1234@naver.com</t>
+  </si>
+  <si>
+    <t>윤서웅</t>
   </si>
 </sst>
 </file>
@@ -3166,7 +3256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -3404,11 +3494,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3488,7 +3608,15 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3538,7 +3666,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N455" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N471" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3765,11 +3893,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N455"/>
+  <dimension ref="A1:N471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A424" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D462" sqref="D462"/>
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22519,7 +22647,662 @@
       <c r="M455" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N455" s="27"/>
+    </row>
+    <row r="456" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="4">
+        <v>45579.968103368054</v>
+      </c>
+      <c r="B456" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D456" s="5">
+        <v>20241510</v>
+      </c>
+      <c r="E456" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H456" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I456" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J456" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K456" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L456" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N456" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="8">
+        <v>45579.985479328709</v>
+      </c>
+      <c r="B457" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D457" s="9">
+        <v>20243403</v>
+      </c>
+      <c r="E457" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F457" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G457" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H457" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I457" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J457" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K457" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L457" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N457" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="4">
+        <v>45579.988872939815</v>
+      </c>
+      <c r="B458" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D458" s="5">
+        <v>20243206</v>
+      </c>
+      <c r="E458" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G458" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H458" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I458" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J458" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K458" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L458" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M458" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="8">
+        <v>45579.992265289351</v>
+      </c>
+      <c r="B459" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D459" s="9">
+        <v>20246782</v>
+      </c>
+      <c r="E459" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F459" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G459" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H459" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I459" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J459" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K459" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L459" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M459" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="4">
+        <v>45580.044683831016</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D460" s="5">
+        <v>20243910</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I460" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J460" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K460" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L460" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N460" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="8">
+        <v>45580.047919942124</v>
+      </c>
+      <c r="B461" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D461" s="9">
+        <v>20213219</v>
+      </c>
+      <c r="E461" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F461" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G461" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H461" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I461" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J461" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K461" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L461" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M461" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="462" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="4">
+        <v>45580.510784467595</v>
+      </c>
+      <c r="B462" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D462" s="5">
+        <v>20193017</v>
+      </c>
+      <c r="E462" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I462" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J462" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K462" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M462" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="8">
+        <v>45580.522600069446</v>
+      </c>
+      <c r="B463" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D463" s="9">
+        <v>20205124</v>
+      </c>
+      <c r="E463" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F463" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G463" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H463" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I463" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J463" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K463" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L463" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N463" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="464" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="4">
+        <v>45580.575596608796</v>
+      </c>
+      <c r="B464" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D464" s="5">
+        <v>20214143</v>
+      </c>
+      <c r="E464" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I464" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J464" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K464" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L464" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N464" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="8">
+        <v>45580.623279027779</v>
+      </c>
+      <c r="B465" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D465" s="9">
+        <v>20231532</v>
+      </c>
+      <c r="E465" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F465" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G465" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H465" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I465" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J465" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K465" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L465" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N465" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="4">
+        <v>45580.650689861111</v>
+      </c>
+      <c r="B466" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D466" s="5">
+        <v>20205176</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I466" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J466" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K466" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L466" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M466" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="8">
+        <v>45580.716945949069</v>
+      </c>
+      <c r="B467" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D467" s="9">
+        <v>20246776</v>
+      </c>
+      <c r="E467" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F467" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G467" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H467" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I467" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J467" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K467" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L467" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M467" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="4">
+        <v>45580.725611018519</v>
+      </c>
+      <c r="B468" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D468" s="5">
+        <v>20246768</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I468" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J468" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K468" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L468" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N468" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="8">
+        <v>45580.762021932867</v>
+      </c>
+      <c r="B469" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D469" s="9">
+        <v>20241518</v>
+      </c>
+      <c r="E469" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F469" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G469" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H469" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I469" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J469" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K469" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L469" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M469" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="4">
+        <v>45580.804402002315</v>
+      </c>
+      <c r="B470" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D470" s="5">
+        <v>20241526</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I470" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J470" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K470" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M470" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="471" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="27">
+        <v>45580.809830671293</v>
+      </c>
+      <c r="B471" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C471" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="D471" s="28">
+        <v>20211523</v>
+      </c>
+      <c r="E471" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F471" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G471" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H471" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I471" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J471" s="29">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K471" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L471" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M471" s="28" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDC92D6-A106-BD4F-A7D3-7B3B99304F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDF8275-CF5B-0947-AC87-CFDB5063B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="900" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4713" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="1090">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3210,6 +3210,87 @@
   </si>
   <si>
     <t>윤서웅</t>
+  </si>
+  <si>
+    <t>pjobin0821@naver.com</t>
+  </si>
+  <si>
+    <t>조유빈</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>gyucheol0503@naver.com</t>
+  </si>
+  <si>
+    <t>홍규철</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>loollypoolly@naver.com</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>jh05502@naver.com</t>
+  </si>
+  <si>
+    <t>최재혁</t>
+  </si>
+  <si>
+    <t>jsk991012@naver.com</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>zzun1414@naver.com</t>
+  </si>
+  <si>
+    <t>반도체·디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>황준영</t>
+  </si>
+  <si>
+    <t>jmju0711@naver.com</t>
+  </si>
+  <si>
+    <t>정민주</t>
+  </si>
+  <si>
+    <t>fruitekomi@naver.com</t>
+  </si>
+  <si>
+    <t>김예은</t>
   </si>
 </sst>
 </file>
@@ -3528,7 +3609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3617,6 +3698,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3666,7 +3748,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N471" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N484" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3893,11 +3975,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N471"/>
+  <dimension ref="A1:N484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D476" sqref="D476"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23304,6 +23386,540 @@
         <v>35</v>
       </c>
     </row>
+    <row r="472" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="4">
+        <v>45580.838975949075</v>
+      </c>
+      <c r="B472" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D472" s="5">
+        <v>20241730</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I472" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J472" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K472" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L472" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M472" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="473" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="8">
+        <v>45580.877295023151</v>
+      </c>
+      <c r="B473" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D473" s="9">
+        <v>20181090</v>
+      </c>
+      <c r="E473" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F473" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G473" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H473" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I473" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J473" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K473" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L473" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M473" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="474" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="4">
+        <v>45580.902339189815</v>
+      </c>
+      <c r="B474" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D474" s="5">
+        <v>20221007</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I474" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J474" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K474" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L474" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N474" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="8">
+        <v>45580.903551967596</v>
+      </c>
+      <c r="B475" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D475" s="9">
+        <v>20243650</v>
+      </c>
+      <c r="E475" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F475" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G475" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H475" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I475" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J475" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K475" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L475" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M475" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="4">
+        <v>45580.950632719905</v>
+      </c>
+      <c r="B476" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D476" s="5">
+        <v>20242411</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G476" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I476" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J476" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K476" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N476" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="477" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="8">
+        <v>45580.955331446763</v>
+      </c>
+      <c r="B477" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D477" s="9">
+        <v>20243609</v>
+      </c>
+      <c r="E477" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F477" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G477" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H477" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I477" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J477" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K477" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L477" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M477" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="4">
+        <v>45580.959782951388</v>
+      </c>
+      <c r="B478" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D478" s="5">
+        <v>20246786</v>
+      </c>
+      <c r="E478" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G478" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I478" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J478" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K478" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L478" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M478" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="479" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="8">
+        <v>45580.962730150466</v>
+      </c>
+      <c r="B479" s="9" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D479" s="9">
+        <v>20182519</v>
+      </c>
+      <c r="E479" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F479" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G479" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H479" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I479" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J479" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K479" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L479" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M479" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="480" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="4">
+        <v>45580.996981770833</v>
+      </c>
+      <c r="B480" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C480" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D480" s="5">
+        <v>20241047</v>
+      </c>
+      <c r="E480" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G480" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I480" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J480" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K480" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N480" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="8">
+        <v>45581.001269942135</v>
+      </c>
+      <c r="B481" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D481" s="9">
+        <v>20243627</v>
+      </c>
+      <c r="E481" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F481" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G481" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H481" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I481" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J481" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K481" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L481" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N481" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="4">
+        <v>45581.07996293981</v>
+      </c>
+      <c r="B482" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C482" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D482" s="5">
+        <v>20203352</v>
+      </c>
+      <c r="E482" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G482" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I482" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J482" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K482" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L482" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M482" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="483" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="8">
+        <v>45581.092468182869</v>
+      </c>
+      <c r="B483" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D483" s="9">
+        <v>20241088</v>
+      </c>
+      <c r="E483" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F483" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G483" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H483" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I483" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J483" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K483" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L483" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N483" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="484" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="17">
+        <v>45581.204068692125</v>
+      </c>
+      <c r="B484" s="18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C484" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D484" s="18">
+        <v>20233710</v>
+      </c>
+      <c r="E484" s="18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F484" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G484" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H484" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I484" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J484" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K484" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L484" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M484" s="30"/>
+      <c r="N484" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202402/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDF8275-CF5B-0947-AC87-CFDB5063B81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A4E87-2223-584C-A250-15A10EB86AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51880" yWindow="1800" windowWidth="40740" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1150">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3291,6 +3291,187 @@
   </si>
   <si>
     <t>김예은</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오메디컬 </t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>dbwjdgus03@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>opix97@naver.com</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>hihi2679@gmail.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>eunse051013@naver.com</t>
+  </si>
+  <si>
+    <t>김은세</t>
+  </si>
+  <si>
+    <t>haeyaxx@nvaer.com</t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>sejun4@naver.com</t>
+  </si>
+  <si>
+    <t>경영/청각</t>
+  </si>
+  <si>
+    <t>박세준</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>silpy2000@icloud.com</t>
+  </si>
+  <si>
+    <t>이윤건</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>benjamin27@naver.com</t>
+  </si>
+  <si>
+    <t>mkjk1227@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>tlsh1282@naver.com</t>
+  </si>
+  <si>
+    <t>융합관광경영전공</t>
+  </si>
+  <si>
+    <t>원세한</t>
+  </si>
+  <si>
+    <t>khj000818@naver.com</t>
+  </si>
+  <si>
+    <t>강현준</t>
+  </si>
+  <si>
+    <t>cindy_lol@naver.com</t>
+  </si>
+  <si>
+    <t>권한별</t>
+  </si>
+  <si>
+    <t>youu0729@naver.com</t>
+  </si>
+  <si>
+    <t>유이현</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>saycom816@gmail.com</t>
+  </si>
+  <si>
+    <t>김영빈</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>fred0203@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학전공</t>
+  </si>
+  <si>
+    <t>이강준</t>
+  </si>
+  <si>
+    <t>dlxotjq27@gmail.com</t>
+  </si>
+  <si>
+    <t>이태섭</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>gisung5864@naver.com</t>
+  </si>
+  <si>
+    <t>조기성</t>
   </si>
 </sst>
 </file>
@@ -3748,7 +3929,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N484" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N511" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3975,11 +4156,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N484"/>
+  <dimension ref="A1:N511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
+      <selection pane="bottomLeft" activeCell="C514" sqref="C514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23915,10 +24096,1117 @@
       <c r="L484" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M484" s="30"/>
       <c r="N484" s="20" t="s">
         <v>58</v>
       </c>
+    </row>
+    <row r="485" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="8">
+        <v>45581.385142974541</v>
+      </c>
+      <c r="B485" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D485" s="9">
+        <v>20243624</v>
+      </c>
+      <c r="E485" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F485" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G485" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H485" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I485" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J485" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K485" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L485" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M485" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="486" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="4">
+        <v>45581.553155289352</v>
+      </c>
+      <c r="B486" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C486" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D486" s="5">
+        <v>20223523</v>
+      </c>
+      <c r="E486" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G486" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I486" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J486" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K486" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L486" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M486" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="8">
+        <v>45581.572760300929</v>
+      </c>
+      <c r="B487" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C487" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D487" s="9">
+        <v>20162755</v>
+      </c>
+      <c r="E487" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F487" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G487" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H487" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I487" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J487" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K487" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L487" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N487" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="4">
+        <v>45581.590566122686</v>
+      </c>
+      <c r="B488" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C488" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D488" s="5">
+        <v>20243815</v>
+      </c>
+      <c r="E488" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G488" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I488" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J488" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K488" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L488" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M488" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="8">
+        <v>45581.620448113426</v>
+      </c>
+      <c r="B489" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C489" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D489" s="9">
+        <v>20197126</v>
+      </c>
+      <c r="E489" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F489" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G489" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H489" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I489" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J489" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K489" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L489" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M489" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="4">
+        <v>45581.631797141206</v>
+      </c>
+      <c r="B490" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C490" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D490" s="5">
+        <v>20246225</v>
+      </c>
+      <c r="E490" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G490" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I490" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J490" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K490" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L490" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N490" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="8">
+        <v>45581.644261331021</v>
+      </c>
+      <c r="B491" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C491" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D491" s="9">
+        <v>20212846</v>
+      </c>
+      <c r="E491" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F491" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G491" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H491" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I491" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J491" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K491" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L491" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N491" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="492" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="4">
+        <v>45581.664163333335</v>
+      </c>
+      <c r="B492" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C492" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D492" s="5">
+        <v>20193968</v>
+      </c>
+      <c r="E492" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G492" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I492" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J492" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K492" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L492" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M492" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="8">
+        <v>45581.684787071761</v>
+      </c>
+      <c r="B493" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C493" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D493" s="9">
+        <v>20217178</v>
+      </c>
+      <c r="E493" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F493" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G493" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H493" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I493" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J493" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K493" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L493" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N493" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="494" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="4">
+        <v>45581.731593576391</v>
+      </c>
+      <c r="B494" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C494" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D494" s="5">
+        <v>20216628</v>
+      </c>
+      <c r="E494" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G494" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I494" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J494" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K494" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L494" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N494" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="8">
+        <v>45581.834282314812</v>
+      </c>
+      <c r="B495" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C495" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D495" s="9">
+        <v>20245224</v>
+      </c>
+      <c r="E495" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F495" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G495" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H495" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I495" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J495" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K495" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L495" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N495" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="4">
+        <v>45581.867586631939</v>
+      </c>
+      <c r="B496" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C496" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D496" s="5">
+        <v>20216609</v>
+      </c>
+      <c r="E496" s="5" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G496" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I496" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J496" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K496" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L496" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N496" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="8">
+        <v>45581.874230983798</v>
+      </c>
+      <c r="B497" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C497" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D497" s="9">
+        <v>20212583</v>
+      </c>
+      <c r="E497" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F497" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G497" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H497" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I497" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J497" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K497" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L497" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M497" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="4">
+        <v>45581.887904641204</v>
+      </c>
+      <c r="B498" s="5" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C498" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D498" s="5">
+        <v>20212840</v>
+      </c>
+      <c r="E498" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G498" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I498" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J498" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K498" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L498" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M498" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="22">
+        <v>45581.952754085651</v>
+      </c>
+      <c r="B499" s="23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C499" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D499" s="23">
+        <v>20193844</v>
+      </c>
+      <c r="E499" s="23" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F499" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G499" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H499" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I499" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J499" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K499" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L499" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M499" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="4">
+        <v>45581.974184965278</v>
+      </c>
+      <c r="B500" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D500" s="5">
+        <v>20212749</v>
+      </c>
+      <c r="E500" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G500" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I500" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J500" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K500" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L500" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N500" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="8">
+        <v>45581.976910150464</v>
+      </c>
+      <c r="B501" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C501" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D501" s="9">
+        <v>20206623</v>
+      </c>
+      <c r="E501" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F501" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G501" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H501" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I501" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J501" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K501" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L501" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N501" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="502" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="4">
+        <v>45581.998521643516</v>
+      </c>
+      <c r="B502" s="5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D502" s="5">
+        <v>20204103</v>
+      </c>
+      <c r="E502" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G502" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H502" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I502" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J502" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K502" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L502" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N502" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="8">
+        <v>45582.00130087963</v>
+      </c>
+      <c r="B503" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C503" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="D503" s="9">
+        <v>20201007</v>
+      </c>
+      <c r="E503" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F503" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G503" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H503" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I503" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J503" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K503" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L503" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N503" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="4">
+        <v>45582.035902847223</v>
+      </c>
+      <c r="B504" s="5" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D504" s="5">
+        <v>20242335</v>
+      </c>
+      <c r="E504" s="5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G504" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H504" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I504" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J504" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K504" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L504" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M504" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="8">
+        <v>45582.097079988424</v>
+      </c>
+      <c r="B505" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D505" s="9">
+        <v>20242342</v>
+      </c>
+      <c r="E505" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F505" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G505" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H505" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I505" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J505" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K505" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L505" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M505" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="4">
+        <v>45582.367537314814</v>
+      </c>
+      <c r="B506" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D506" s="5">
+        <v>20242930</v>
+      </c>
+      <c r="E506" s="5" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G506" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H506" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I506" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J506" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K506" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L506" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M506" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="8">
+        <v>45582.500348703703</v>
+      </c>
+      <c r="B507" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D507" s="9">
+        <v>20191623</v>
+      </c>
+      <c r="E507" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F507" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G507" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H507" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I507" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J507" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K507" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L507" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M507" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="4">
+        <v>45582.541005277773</v>
+      </c>
+      <c r="B508" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D508" s="5">
+        <v>20227091</v>
+      </c>
+      <c r="E508" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G508" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H508" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I508" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J508" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K508" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L508" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M508" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="8">
+        <v>45582.596273923613</v>
+      </c>
+      <c r="B509" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C509" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D509" s="9">
+        <v>20213023</v>
+      </c>
+      <c r="E509" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F509" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G509" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H509" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I509" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J509" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K509" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L509" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N509" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="4">
+        <v>45582.624926331016</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D510" s="5">
+        <v>20242995</v>
+      </c>
+      <c r="E510" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G510" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H510" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I510" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J510" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K510" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L510" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M510" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="22">
+        <v>45582.643605069446</v>
+      </c>
+      <c r="B511" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C511" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D511" s="23">
+        <v>20216526</v>
+      </c>
+      <c r="E511" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F511" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G511" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H511" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I511" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J511" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K511" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L511" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M511" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N511" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A4E87-2223-584C-A250-15A10EB86AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CB1CD-08F8-DB44-949C-AEC805FF0412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51880" yWindow="1800" windowWidth="40740" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="1194">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3472,6 +3472,138 @@
   </si>
   <si>
     <t>조기성</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>nwjcq14@naver.com</t>
+  </si>
+  <si>
+    <t>임미정</t>
+  </si>
+  <si>
+    <t>jytoto33@naver.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>raon02271@naver.com</t>
+  </si>
+  <si>
+    <t>이채윤</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>psh020509@naver.com</t>
+  </si>
+  <si>
+    <t>박시환</t>
+  </si>
+  <si>
+    <t>krdevmon@gmail.com</t>
+  </si>
+  <si>
+    <t>안봉근</t>
+  </si>
+  <si>
+    <t>bigeyejimmy1@naver.com</t>
+  </si>
+  <si>
+    <t>김현준</t>
+  </si>
+  <si>
+    <t>ahfahf12@gmail.com</t>
+  </si>
+  <si>
+    <t>김원준</t>
+  </si>
+  <si>
+    <t>mmin121420@naver.com</t>
+  </si>
+  <si>
+    <t>김승민</t>
+  </si>
+  <si>
+    <t>misunhong0707@gmail.com</t>
+  </si>
+  <si>
+    <t>홍미선</t>
+  </si>
+  <si>
+    <t>hiday_516@naver.com</t>
+  </si>
+  <si>
+    <t>양희지</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>yoonsun91124@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤선</t>
   </si>
 </sst>
 </file>
@@ -3518,7 +3650,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3786,11 +3918,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3880,6 +4025,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3929,7 +4077,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N511" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N533" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4156,11 +4304,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N511"/>
+  <dimension ref="A1:N533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C514" sqref="C514"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D540" sqref="D540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25206,7 +25354,909 @@
       <c r="M511" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N511" s="30"/>
+    </row>
+    <row r="512" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="4">
+        <v>45582.676394212962</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D512" s="5">
+        <v>20242418</v>
+      </c>
+      <c r="E512" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G512" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H512" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I512" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J512" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K512" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L512" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M512" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="8">
+        <v>45582.764642800925</v>
+      </c>
+      <c r="B513" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D513" s="9">
+        <v>20227040</v>
+      </c>
+      <c r="E513" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F513" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G513" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H513" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I513" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J513" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K513" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L513" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M513" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="4">
+        <v>45582.850453692125</v>
+      </c>
+      <c r="B514" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D514" s="5">
+        <v>20232726</v>
+      </c>
+      <c r="E514" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G514" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H514" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I514" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J514" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K514" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L514" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M514" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="8">
+        <v>45582.866828495375</v>
+      </c>
+      <c r="B515" s="9" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D515" s="9">
+        <v>20216631</v>
+      </c>
+      <c r="E515" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F515" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G515" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H515" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I515" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J515" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K515" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L515" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M515" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="4">
+        <v>45582.889258495372</v>
+      </c>
+      <c r="B516" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C516" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D516" s="5">
+        <v>20243912</v>
+      </c>
+      <c r="E516" s="5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G516" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H516" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I516" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J516" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K516" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L516" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M516" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="8">
+        <v>45582.891591817126</v>
+      </c>
+      <c r="B517" s="9" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C517" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D517" s="9">
+        <v>20235263</v>
+      </c>
+      <c r="E517" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="F517" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G517" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H517" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I517" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J517" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K517" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L517" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M517" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="4">
+        <v>45582.94235592593</v>
+      </c>
+      <c r="B518" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C518" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D518" s="5">
+        <v>20222830</v>
+      </c>
+      <c r="E518" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G518" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H518" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I518" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J518" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K518" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L518" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M518" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="8">
+        <v>45582.973585613421</v>
+      </c>
+      <c r="B519" s="9" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C519" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D519" s="9">
+        <v>20236615</v>
+      </c>
+      <c r="E519" s="9" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F519" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G519" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H519" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I519" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J519" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K519" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L519" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M519" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="4">
+        <v>45583.119136504625</v>
+      </c>
+      <c r="B520" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C520" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D520" s="5">
+        <v>20242749</v>
+      </c>
+      <c r="E520" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G520" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H520" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I520" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J520" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K520" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L520" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N520" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="8">
+        <v>45583.142275509264</v>
+      </c>
+      <c r="B521" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D521" s="9">
+        <v>20233954</v>
+      </c>
+      <c r="E521" s="9" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F521" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G521" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H521" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I521" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J521" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K521" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L521" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M521" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="4">
+        <v>45583.149145370371</v>
+      </c>
+      <c r="B522" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C522" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D522" s="5">
+        <v>20242205</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G522" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H522" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I522" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J522" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K522" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L522" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M522" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="8">
+        <v>45583.365141192131</v>
+      </c>
+      <c r="B523" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D523" s="9">
+        <v>20202719</v>
+      </c>
+      <c r="E523" s="9" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F523" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G523" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H523" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I523" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J523" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K523" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L523" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M523" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="4">
+        <v>45583.446147962968</v>
+      </c>
+      <c r="B524" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C524" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="D524" s="5">
+        <v>20212820</v>
+      </c>
+      <c r="E524" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G524" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H524" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I524" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J524" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K524" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L524" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N524" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="8">
+        <v>45583.456844710643</v>
+      </c>
+      <c r="B525" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D525" s="9">
+        <v>20205198</v>
+      </c>
+      <c r="E525" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F525" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G525" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H525" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I525" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J525" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K525" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L525" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N525" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="4">
+        <v>45583.547690046296</v>
+      </c>
+      <c r="B526" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C526" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D526" s="5">
+        <v>20182850</v>
+      </c>
+      <c r="E526" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G526" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H526" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I526" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J526" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K526" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L526" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N526" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="8">
+        <v>45583.555058460654</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D527" s="9">
+        <v>20202408</v>
+      </c>
+      <c r="E527" s="9" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F527" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G527" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H527" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I527" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J527" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K527" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L527" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N527" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="4">
+        <v>45583.567687037037</v>
+      </c>
+      <c r="B528" s="5" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C528" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D528" s="5">
+        <v>20244110</v>
+      </c>
+      <c r="E528" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G528" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H528" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I528" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J528" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K528" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L528" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M528" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="8">
+        <v>45583.586613749998</v>
+      </c>
+      <c r="B529" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D529" s="9">
+        <v>20246940</v>
+      </c>
+      <c r="E529" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F529" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G529" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H529" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I529" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J529" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K529" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L529" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N529" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="4">
+        <v>45583.60945625</v>
+      </c>
+      <c r="B530" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C530" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D530" s="5">
+        <v>20203523</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G530" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H530" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I530" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J530" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K530" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L530" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M530" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="8">
+        <v>45583.637142731481</v>
+      </c>
+      <c r="B531" s="9" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D531" s="9">
+        <v>20193420</v>
+      </c>
+      <c r="E531" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F531" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G531" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H531" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I531" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J531" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K531" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L531" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N531" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="4">
+        <v>45583.674181539347</v>
+      </c>
+      <c r="B532" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C532" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D532" s="5">
+        <v>20223801</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G532" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H532" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I532" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J532" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K532" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L532" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M532" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="22">
+        <v>45583.826498148148</v>
+      </c>
+      <c r="B533" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C533" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D533" s="23">
+        <v>20245167</v>
+      </c>
+      <c r="E533" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F533" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G533" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H533" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I533" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J533" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K533" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L533" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M533" s="30"/>
+      <c r="N533" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522CB1CD-08F8-DB44-949C-AEC805FF0412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF2070-8934-464D-A4ED-B181379154E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51880" yWindow="1800" windowWidth="40740" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5333" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1305">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3604,6 +3604,339 @@
   </si>
   <si>
     <t>박윤선</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>chanwoo0807@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬우</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>marlboroe53@naver.com</t>
+  </si>
+  <si>
+    <t>권도연</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naver.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>njhouuu05@naver.com</t>
+  </si>
+  <si>
+    <t>남진호</t>
+  </si>
+  <si>
+    <t>choikang2010@naver.com</t>
+  </si>
+  <si>
+    <t>최연희</t>
+  </si>
+  <si>
+    <t>hyerujys2005@naver.com</t>
+  </si>
+  <si>
+    <t>정윤수</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>chaseoyeon0103@naver.com</t>
+  </si>
+  <si>
+    <t>차서연</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>bamddol2@gmail.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>bagminhyeog534@gmail.com</t>
+  </si>
+  <si>
+    <t>박민혁</t>
+  </si>
+  <si>
+    <t>haeun_ob@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학과  </t>
+  </si>
+  <si>
+    <t>박하은</t>
+  </si>
+  <si>
+    <t>jb9517asd@naver.com</t>
+  </si>
+  <si>
+    <t>곽우주</t>
+  </si>
+  <si>
+    <t>alwo990@mnaver.com</t>
+  </si>
+  <si>
+    <t>체듁학과</t>
+  </si>
+  <si>
+    <t>서정웅</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>duke102426@gmail.com</t>
+  </si>
+  <si>
+    <t>문진혁</t>
+  </si>
+  <si>
+    <t>sojunghanbomul@gmail.com</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>nye3796@gmail.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>hyerim0v0@gmail.com</t>
+  </si>
+  <si>
+    <t>전혜림</t>
+  </si>
+  <si>
+    <t>kmjung0948@gmail.com</t>
+  </si>
+  <si>
+    <t>진현수</t>
+  </si>
+  <si>
+    <t>leedongyoung797@gmail.com</t>
+  </si>
+  <si>
+    <t>이동영</t>
+  </si>
+  <si>
+    <t>hcheon27@gmail.com</t>
+  </si>
+  <si>
+    <t>천하윤</t>
+  </si>
+  <si>
+    <t>lapter1122@naver.com</t>
+  </si>
+  <si>
+    <t>진유진</t>
+  </si>
+  <si>
+    <t>sohn1118@naver.com</t>
+  </si>
+  <si>
+    <t>손정빈</t>
+  </si>
+  <si>
+    <t>taewon16@naver.com</t>
+  </si>
+  <si>
+    <t>류태원</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>soonbeom1130@naver.com</t>
+  </si>
+  <si>
+    <t>권순범</t>
+  </si>
+  <si>
+    <t>ndd1016@gmail.com</t>
+  </si>
+  <si>
+    <t>최형렬</t>
+  </si>
+  <si>
+    <t>sugarain0613@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>a22234781@gmail.com</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언론방송융합미디어 </t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>hwo0933@gmail.com</t>
+  </si>
+  <si>
+    <t>양현우</t>
+  </si>
+  <si>
+    <t>sjhaa303028@naver.com</t>
+  </si>
+  <si>
+    <t>신중현</t>
+  </si>
+  <si>
+    <t>jud050207@gmail.com</t>
+  </si>
+  <si>
+    <t>정의돈</t>
+  </si>
+  <si>
+    <t>hjjj051014@naver.com</t>
+  </si>
+  <si>
+    <t>안효정</t>
+  </si>
+  <si>
+    <t>hyu05145@gmail.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>p20236727@gmail.com</t>
+  </si>
+  <si>
+    <t>xx0911ram1@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>정하람</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
+  </si>
+  <si>
+    <t>ahs042400@naver.com</t>
+  </si>
+  <si>
+    <t>안현성</t>
+  </si>
+  <si>
+    <t>seokhoo1@naver.com</t>
+  </si>
+  <si>
+    <t>박석호</t>
   </si>
 </sst>
 </file>
@@ -4024,10 +4357,10 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4077,7 +4410,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N533" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N589" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4304,11 +4637,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N533"/>
+  <dimension ref="A1:N589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D540" sqref="D540"/>
+      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C596" sqref="C596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26253,10 +26586,2306 @@
       <c r="L533" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M533" s="30"/>
-      <c r="N533" s="31" t="s">
+      <c r="N533" s="30" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="534" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="4">
+        <v>45583.877631006944</v>
+      </c>
+      <c r="B534" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C534" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D534" s="5">
+        <v>20212613</v>
+      </c>
+      <c r="E534" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G534" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H534" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I534" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J534" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K534" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L534" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M534" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="8">
+        <v>45583.884482164351</v>
+      </c>
+      <c r="B535" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D535" s="9">
+        <v>20223316</v>
+      </c>
+      <c r="E535" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F535" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G535" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H535" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I535" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J535" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K535" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L535" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M535" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="4">
+        <v>45583.890523738424</v>
+      </c>
+      <c r="B536" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C536" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D536" s="5">
+        <v>20182308</v>
+      </c>
+      <c r="E536" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G536" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H536" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I536" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J536" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K536" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L536" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N536" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="8">
+        <v>45583.917839097223</v>
+      </c>
+      <c r="B537" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D537" s="9">
+        <v>20212432</v>
+      </c>
+      <c r="E537" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F537" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G537" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H537" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I537" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J537" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K537" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L537" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M537" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="4">
+        <v>45583.950521423612</v>
+      </c>
+      <c r="B538" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C538" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D538" s="5">
+        <v>20246610</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G538" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H538" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I538" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J538" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K538" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L538" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M538" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="8">
+        <v>45583.95779226852</v>
+      </c>
+      <c r="B539" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C539" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D539" s="9">
+        <v>20203302</v>
+      </c>
+      <c r="E539" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F539" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G539" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H539" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I539" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J539" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K539" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L539" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N539" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="4">
+        <v>45583.976714143515</v>
+      </c>
+      <c r="B540" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C540" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D540" s="5">
+        <v>20203807</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G540" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H540" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I540" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J540" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K540" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L540" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N540" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="8">
+        <v>45584.016729224539</v>
+      </c>
+      <c r="B541" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C541" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="D541" s="9">
+        <v>20205167</v>
+      </c>
+      <c r="E541" s="9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F541" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G541" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H541" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I541" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J541" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K541" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L541" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N541" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="4">
+        <v>45584.017728032406</v>
+      </c>
+      <c r="B542" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D542" s="5">
+        <v>20243241</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G542" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H542" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I542" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J542" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K542" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L542" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N542" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="8">
+        <v>45584.025843043986</v>
+      </c>
+      <c r="B543" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C543" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D543" s="9">
+        <v>20245156</v>
+      </c>
+      <c r="E543" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F543" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G543" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H543" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I543" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J543" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K543" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L543" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M543" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="4">
+        <v>45584.027869467594</v>
+      </c>
+      <c r="B544" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C544" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D544" s="5">
+        <v>20222238</v>
+      </c>
+      <c r="E544" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G544" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H544" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I544" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J544" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K544" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L544" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M544" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="8">
+        <v>45584.027970601848</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D545" s="9">
+        <v>20242575</v>
+      </c>
+      <c r="E545" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F545" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G545" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H545" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I545" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J545" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K545" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L545" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M545" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="4">
+        <v>45584.033984120368</v>
+      </c>
+      <c r="B546" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C546" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D546" s="5">
+        <v>20212104</v>
+      </c>
+      <c r="E546" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H546" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I546" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J546" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K546" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L546" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N546" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="8">
+        <v>45584.072066365741</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D547" s="9">
+        <v>20192736</v>
+      </c>
+      <c r="E547" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F547" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G547" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J547" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K547" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L547" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N547" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="17">
+        <v>45584.131238657406</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D548" s="18">
+        <v>20201046</v>
+      </c>
+      <c r="E548" s="18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F548" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G548" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H548" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I548" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J548" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K548" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L548" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M548" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="8">
+        <v>45584.514019872688</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C549" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D549" s="9">
+        <v>20242532</v>
+      </c>
+      <c r="E549" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F549" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G549" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H549" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I549" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J549" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K549" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L549" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M549" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="4">
+        <v>45584.51927503472</v>
+      </c>
+      <c r="B550" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C550" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D550" s="5">
+        <v>20241537</v>
+      </c>
+      <c r="E550" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H550" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I550" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J550" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K550" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L550" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M550" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="8">
+        <v>45584.542694791671</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C551" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D551" s="9">
+        <v>20202501</v>
+      </c>
+      <c r="E551" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F551" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G551" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H551" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I551" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J551" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K551" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L551" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M551" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="4">
+        <v>45584.55120494213</v>
+      </c>
+      <c r="B552" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C552" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D552" s="5">
+        <v>20161632</v>
+      </c>
+      <c r="E552" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G552" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H552" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I552" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J552" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K552" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L552" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M552" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="8">
+        <v>45584.554063437499</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C553" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D553" s="9">
+        <v>20243814</v>
+      </c>
+      <c r="E553" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F553" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G553" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H553" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I553" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J553" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K553" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L553" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M553" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="4">
+        <v>45584.565868101854</v>
+      </c>
+      <c r="B554" s="5" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C554" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D554" s="5">
+        <v>20242320</v>
+      </c>
+      <c r="E554" s="5" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G554" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H554" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I554" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J554" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K554" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L554" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N554" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="8">
+        <v>45584.604182835646</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C555" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D555" s="9">
+        <v>20222327</v>
+      </c>
+      <c r="E555" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F555" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G555" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H555" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I555" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J555" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K555" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L555" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N555" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="4">
+        <v>45584.62258978009</v>
+      </c>
+      <c r="B556" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D556" s="5">
+        <v>20245109</v>
+      </c>
+      <c r="E556" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G556" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H556" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I556" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J556" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K556" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L556" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M556" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="8">
+        <v>45584.625812754632</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C557" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D557" s="9">
+        <v>20207133</v>
+      </c>
+      <c r="E557" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F557" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G557" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H557" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I557" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J557" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K557" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L557" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M557" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="4">
+        <v>45584.628576250005</v>
+      </c>
+      <c r="B558" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C558" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D558" s="5">
+        <v>20246728</v>
+      </c>
+      <c r="E558" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G558" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H558" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I558" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J558" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K558" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L558" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M558" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="8">
+        <v>45584.629660682869</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C559" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D559" s="9">
+        <v>20182862</v>
+      </c>
+      <c r="E559" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F559" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G559" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H559" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I559" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J559" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K559" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L559" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N559" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="4">
+        <v>45584.651840659717</v>
+      </c>
+      <c r="B560" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C560" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D560" s="5">
+        <v>20241513</v>
+      </c>
+      <c r="E560" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G560" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H560" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I560" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J560" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K560" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L560" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M560" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="8">
+        <v>45584.653301365739</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C561" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D561" s="9">
+        <v>20233605</v>
+      </c>
+      <c r="E561" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F561" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G561" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H561" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I561" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J561" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K561" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L561" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N561" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="4">
+        <v>45584.668711655089</v>
+      </c>
+      <c r="B562" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C562" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D562" s="5">
+        <v>20242225</v>
+      </c>
+      <c r="E562" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G562" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H562" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I562" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J562" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K562" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L562" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N562" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="8">
+        <v>45584.673739861115</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C563" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D563" s="9">
+        <v>20233717</v>
+      </c>
+      <c r="E563" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F563" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G563" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H563" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I563" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J563" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K563" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L563" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N563" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="17">
+        <v>45584.675024641205</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C564" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D564" s="18">
+        <v>20243723</v>
+      </c>
+      <c r="E564" s="18" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F564" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G564" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H564" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I564" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J564" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K564" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L564" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N564" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="8">
+        <v>45584.694236793977</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D565" s="9">
+        <v>20231630</v>
+      </c>
+      <c r="E565" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F565" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G565" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H565" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I565" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J565" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K565" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L565" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M565" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="4">
+        <v>45584.715464374996</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C566" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D566" s="5">
+        <v>20242352</v>
+      </c>
+      <c r="E566" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G566" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H566" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I566" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J566" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K566" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L566" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N566" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="8">
+        <v>45584.719452974532</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C567" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D567" s="9">
+        <v>20243934</v>
+      </c>
+      <c r="E567" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F567" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G567" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H567" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I567" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J567" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K567" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L567" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M567" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="4">
+        <v>45584.719551979171</v>
+      </c>
+      <c r="B568" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C568" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D568" s="5">
+        <v>20246293</v>
+      </c>
+      <c r="E568" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G568" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H568" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I568" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J568" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K568" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L568" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N568" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="8">
+        <v>45584.722122465275</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D569" s="9">
+        <v>20232635</v>
+      </c>
+      <c r="E569" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F569" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G569" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H569" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I569" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J569" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K569" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L569" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M569" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="4">
+        <v>45584.724433715281</v>
+      </c>
+      <c r="B570" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C570" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D570" s="5">
+        <v>20223519</v>
+      </c>
+      <c r="E570" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G570" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H570" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I570" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J570" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K570" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L570" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M570" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="8">
+        <v>45584.730117175925</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="D571" s="9">
+        <v>20195158</v>
+      </c>
+      <c r="E571" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F571" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G571" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H571" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I571" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J571" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K571" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L571" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M571" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="4">
+        <v>45584.730243668979</v>
+      </c>
+      <c r="B572" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D572" s="5">
+        <v>20231033</v>
+      </c>
+      <c r="E572" s="5" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G572" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H572" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I572" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J572" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K572" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L572" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M572" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="8">
+        <v>45584.758587546297</v>
+      </c>
+      <c r="B573" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D573" s="9">
+        <v>20235112</v>
+      </c>
+      <c r="E573" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F573" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G573" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I573" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J573" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K573" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L573" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N573" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="4">
+        <v>45584.743443032407</v>
+      </c>
+      <c r="B574" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D574" s="5">
+        <v>20213737</v>
+      </c>
+      <c r="E574" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G574" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H574" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I574" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J574" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K574" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L574" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N574" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="8">
+        <v>45584.776367615741</v>
+      </c>
+      <c r="B575" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D575" s="9">
+        <v>20245233</v>
+      </c>
+      <c r="E575" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F575" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G575" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H575" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I575" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J575" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K575" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L575" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M575" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="4">
+        <v>45584.800314409724</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C576" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D576" s="5">
+        <v>20201076</v>
+      </c>
+      <c r="E576" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J576" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K576" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L576" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N576" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="8">
+        <v>45584.805578969906</v>
+      </c>
+      <c r="B577" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D577" s="9">
+        <v>20232502</v>
+      </c>
+      <c r="E577" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F577" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G577" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H577" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I577" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J577" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K577" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L577" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N577" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="4">
+        <v>45584.807232604166</v>
+      </c>
+      <c r="B578" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C578" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D578" s="5">
+        <v>20236627</v>
+      </c>
+      <c r="E578" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G578" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H578" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I578" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J578" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K578" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L578" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M578" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="8">
+        <v>45584.820809571756</v>
+      </c>
+      <c r="B579" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D579" s="9">
+        <v>20246741</v>
+      </c>
+      <c r="E579" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F579" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G579" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H579" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I579" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J579" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K579" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L579" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N579" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="4">
+        <v>45584.822839432869</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C580" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D580" s="5">
+        <v>20245252</v>
+      </c>
+      <c r="E580" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G580" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H580" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I580" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J580" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K580" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L580" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M580" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="8">
+        <v>45584.828475532406</v>
+      </c>
+      <c r="B581" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D581" s="9">
+        <v>20243628</v>
+      </c>
+      <c r="E581" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F581" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G581" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H581" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I581" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J581" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K581" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L581" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N581" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="4">
+        <v>45584.836595405097</v>
+      </c>
+      <c r="B582" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C582" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D582" s="5">
+        <v>20172433</v>
+      </c>
+      <c r="E582" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G582" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H582" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I582" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J582" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K582" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L582" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N582" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="8">
+        <v>45584.860540069443</v>
+      </c>
+      <c r="B583" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D583" s="9">
+        <v>20236727</v>
+      </c>
+      <c r="E583" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="F583" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G583" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H583" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I583" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J583" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K583" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L583" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M583" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="4">
+        <v>45584.866516724534</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C584" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D584" s="5">
+        <v>202046422</v>
+      </c>
+      <c r="E584" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G584" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H584" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I584" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J584" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K584" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L584" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M584" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="8">
+        <v>45584.87081576389</v>
+      </c>
+      <c r="B585" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D585" s="9">
+        <v>20243253</v>
+      </c>
+      <c r="E585" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F585" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G585" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H585" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I585" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J585" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K585" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L585" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M585" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="4">
+        <v>45584.878589016203</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D586" s="5">
+        <v>20246289</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G586" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I586" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J586" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K586" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L586" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M586" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="8">
+        <v>45584.887103749999</v>
+      </c>
+      <c r="B587" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D587" s="9">
+        <v>20213719</v>
+      </c>
+      <c r="E587" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F587" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I587" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J587" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K587" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L587" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N587" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="4">
+        <v>45584.908033715277</v>
+      </c>
+      <c r="B588" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C588" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D588" s="5">
+        <v>20241038</v>
+      </c>
+      <c r="E588" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G588" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H588" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I588" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J588" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K588" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L588" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M588" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="22">
+        <v>45584.913756064816</v>
+      </c>
+      <c r="B589" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C589" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D589" s="23">
+        <v>20203635</v>
+      </c>
+      <c r="E589" s="23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F589" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G589" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H589" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I589" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J589" s="24">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K589" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L589" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M589" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N589" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CF2070-8934-464D-A4ED-B181379154E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE5750C-B9B6-9D44-AB81-9011F4E0F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51880" yWindow="1800" windowWidth="40740" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6583" uniqueCount="1447">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3937,6 +3937,432 @@
   </si>
   <si>
     <t>박석호</t>
+  </si>
+  <si>
+    <t>scjscj913@naver.com</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>yeona0926@gmail.com</t>
+  </si>
+  <si>
+    <t>강연아</t>
+  </si>
+  <si>
+    <t>mi3107359@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 영어영문학과</t>
+  </si>
+  <si>
+    <t>이미진</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>jiurim0316@naver.com</t>
+  </si>
+  <si>
+    <t>지우림</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>언론정보융합미디어전공</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>jhry0903@naver.com</t>
+  </si>
+  <si>
+    <t>조하령</t>
+  </si>
+  <si>
+    <t>you33013301@gmail.com</t>
+  </si>
+  <si>
+    <t>권유정</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>h20192983@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>kya01095509223@gmail.com</t>
+  </si>
+  <si>
+    <t>김윤아</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>qpal0737k@gmail.com</t>
+  </si>
+  <si>
+    <t>유현이</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>sjw9802@naver.com</t>
+  </si>
+  <si>
+    <t>선지우</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>yeonju455@naver.com</t>
+  </si>
+  <si>
+    <t>정연주</t>
+  </si>
+  <si>
+    <t>ss0001234@naver.com</t>
+  </si>
+  <si>
+    <t>김세은</t>
+  </si>
+  <si>
+    <t>marcy0628@naver.com</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언어청각학부 </t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>lindenjw12@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>sunkeun.han@gmail.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>yeon4262@naver.com</t>
+  </si>
+  <si>
+    <t>신수연</t>
+  </si>
+  <si>
+    <t>umsoobin5820@gmail.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>choyunjae2153@gmail.com</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>chaerin3940@naver.com</t>
+  </si>
+  <si>
+    <t>시회학과</t>
+  </si>
+  <si>
+    <t>김채린</t>
+  </si>
+  <si>
+    <t>eoqkr4821@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>hshkjh1234@naver.com</t>
+  </si>
+  <si>
+    <t>황소현</t>
+  </si>
+  <si>
+    <t>jklucky09@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">최준근 </t>
+  </si>
+  <si>
+    <t>thddnjs1030@naver.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>nickjjang7@naver.com</t>
+  </si>
+  <si>
+    <t>옥석현</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>yhh323@naver.com</t>
+  </si>
+  <si>
+    <t>유형호</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>you72460601@gmail.com</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>ljw76825119@gmail.com</t>
+  </si>
+  <si>
+    <t>ksj10710@naver.com</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>wndus6604@naver.com</t>
+  </si>
+  <si>
+    <t>남주연</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>jongh0516@naver.com</t>
+  </si>
+  <si>
+    <t>오종학</t>
+  </si>
+  <si>
+    <t>tngusvhs@gmail.com</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>uj5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>akeb110@naver.com</t>
+  </si>
+  <si>
+    <t>김은빈</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>ian5791@naver.com</t>
+  </si>
+  <si>
+    <t>박수현</t>
+  </si>
+  <si>
+    <t>sk2000tyr@naver.com</t>
+  </si>
+  <si>
+    <t>이지한</t>
+  </si>
+  <si>
+    <t>bcy1976@naver.com</t>
+  </si>
+  <si>
+    <t>변치윤</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>joo6806898@naver.com</t>
+  </si>
+  <si>
+    <t>김승주</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>andy9925@naver.com</t>
+  </si>
+  <si>
+    <t>김무극</t>
+  </si>
+  <si>
+    <t>ytkay05@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터서이언스학부</t>
+  </si>
+  <si>
+    <t>김영민</t>
   </si>
 </sst>
 </file>
@@ -4410,7 +4836,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N589" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N658" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -4637,11 +5063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N589"/>
+  <dimension ref="A1:N658"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A547" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C596" sqref="C596"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C670" sqref="C670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28885,7 +29311,2838 @@
       <c r="M589" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N589" s="31"/>
+    </row>
+    <row r="590" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="4">
+        <v>45584.9319497338</v>
+      </c>
+      <c r="B590" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C590" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D590" s="5">
+        <v>20217180</v>
+      </c>
+      <c r="E590" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G590" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H590" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I590" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J590" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K590" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L590" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M590" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="8">
+        <v>45584.959866655088</v>
+      </c>
+      <c r="B591" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C591" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D591" s="9">
+        <v>20246203</v>
+      </c>
+      <c r="E591" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F591" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H591" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I591" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J591" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K591" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L591" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M591" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="592" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="4">
+        <v>45584.973633888891</v>
+      </c>
+      <c r="B592" s="5" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C592" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D592" s="5">
+        <v>20241220</v>
+      </c>
+      <c r="E592" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G592" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I592" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J592" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K592" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L592" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M592" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="8">
+        <v>45584.974706886569</v>
+      </c>
+      <c r="B593" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C593" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D593" s="9">
+        <v>20243001</v>
+      </c>
+      <c r="E593" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F593" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G593" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H593" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I593" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J593" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K593" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L593" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N593" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="594" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="4">
+        <v>45584.976444722226</v>
+      </c>
+      <c r="B594" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C594" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D594" s="5">
+        <v>20222905</v>
+      </c>
+      <c r="E594" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G594" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I594" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J594" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K594" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L594" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N594" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="8">
+        <v>45584.988205289352</v>
+      </c>
+      <c r="B595" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C595" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D595" s="9">
+        <v>20202849</v>
+      </c>
+      <c r="E595" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F595" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G595" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I595" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J595" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K595" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L595" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N595" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="4">
+        <v>45584.990370127314</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C596" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D596" s="5">
+        <v>20222361</v>
+      </c>
+      <c r="E596" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G596" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H596" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I596" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J596" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K596" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L596" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N596" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="8">
+        <v>45584.999999282409</v>
+      </c>
+      <c r="B597" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C597" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D597" s="9">
+        <v>20201002</v>
+      </c>
+      <c r="E597" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F597" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G597" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H597" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I597" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J597" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K597" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L597" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M597" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="4">
+        <v>45585.012947615745</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C598" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D598" s="5">
+        <v>20241097</v>
+      </c>
+      <c r="E598" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G598" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H598" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I598" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J598" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K598" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L598" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M598" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="8">
+        <v>45585.026955914349</v>
+      </c>
+      <c r="B599" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D599" s="9">
+        <v>20223504</v>
+      </c>
+      <c r="E599" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F599" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G599" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I599" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J599" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K599" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L599" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N599" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="4">
+        <v>45585.063040497684</v>
+      </c>
+      <c r="B600" s="5" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C600" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D600" s="5">
+        <v>20202637</v>
+      </c>
+      <c r="E600" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G600" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I600" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J600" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K600" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L600" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N600" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="8">
+        <v>45585.073064571756</v>
+      </c>
+      <c r="B601" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="D601" s="9">
+        <v>20192983</v>
+      </c>
+      <c r="E601" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="F601" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G601" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I601" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J601" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K601" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L601" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M601" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="4">
+        <v>45585.138176365741</v>
+      </c>
+      <c r="B602" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C602" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D602" s="5">
+        <v>20242423</v>
+      </c>
+      <c r="E602" s="5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G602" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H602" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I602" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J602" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K602" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L602" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N602" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="8">
+        <v>45585.228210543981</v>
+      </c>
+      <c r="B603" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C603" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D603" s="9">
+        <v>20246224</v>
+      </c>
+      <c r="E603" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F603" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G603" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H603" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I603" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J603" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K603" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L603" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N603" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="4">
+        <v>45585.24986304398</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C604" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D604" s="5">
+        <v>20182346</v>
+      </c>
+      <c r="E604" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G604" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H604" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I604" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J604" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K604" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L604" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M604" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="22">
+        <v>45585.291150486111</v>
+      </c>
+      <c r="B605" s="23" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D605" s="23">
+        <v>20232734</v>
+      </c>
+      <c r="E605" s="23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F605" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G605" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H605" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I605" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J605" s="24">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K605" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L605" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M605" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N605" s="31"/>
+    </row>
+    <row r="606" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="4">
+        <v>45585.32996855324</v>
+      </c>
+      <c r="B606" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C606" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D606" s="5">
+        <v>20246301</v>
+      </c>
+      <c r="E606" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G606" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H606" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I606" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J606" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K606" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L606" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N606" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="8">
+        <v>45585.344931400468</v>
+      </c>
+      <c r="B607" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C607" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D607" s="9">
+        <v>20243622</v>
+      </c>
+      <c r="E607" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F607" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G607" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H607" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I607" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J607" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K607" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L607" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M607" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="4">
+        <v>45585.388843055553</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C608" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D608" s="5">
+        <v>20232750</v>
+      </c>
+      <c r="E608" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H608" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I608" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J608" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K608" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L608" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N608" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="8">
+        <v>45585.410409155098</v>
+      </c>
+      <c r="B609" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C609" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D609" s="9">
+        <v>20226638</v>
+      </c>
+      <c r="E609" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F609" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G609" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H609" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I609" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J609" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K609" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L609" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N609" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="610" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="4">
+        <v>45585.440460289348</v>
+      </c>
+      <c r="B610" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C610" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D610" s="5">
+        <v>20203211</v>
+      </c>
+      <c r="E610" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G610" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H610" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I610" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J610" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K610" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L610" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M610" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="8">
+        <v>45585.451083946755</v>
+      </c>
+      <c r="B611" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C611" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D611" s="9">
+        <v>20216514</v>
+      </c>
+      <c r="E611" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F611" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G611" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H611" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I611" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J611" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K611" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L611" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N611" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="4">
+        <v>45585.454751585647</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C612" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D612" s="5">
+        <v>20243964</v>
+      </c>
+      <c r="E612" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G612" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H612" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I612" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J612" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K612" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L612" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N612" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="613" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="8">
+        <v>45585.464173067128</v>
+      </c>
+      <c r="B613" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C613" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D613" s="9">
+        <v>20242932</v>
+      </c>
+      <c r="E613" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F613" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G613" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H613" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I613" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J613" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K613" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L613" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M613" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="4">
+        <v>45585.494495185187</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C614" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D614" s="5">
+        <v>20233016</v>
+      </c>
+      <c r="E614" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G614" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H614" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I614" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J614" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K614" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L614" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M614" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="615" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="8">
+        <v>45585.533542152778</v>
+      </c>
+      <c r="B615" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C615" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D615" s="9">
+        <v>20223224</v>
+      </c>
+      <c r="E615" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F615" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G615" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H615" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I615" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J615" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K615" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L615" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M615" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="616" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="4">
+        <v>45585.543104826385</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C616" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D616" s="5">
+        <v>20213644</v>
+      </c>
+      <c r="E616" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G616" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H616" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I616" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J616" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K616" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L616" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N616" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="8">
+        <v>45585.552619282404</v>
+      </c>
+      <c r="B617" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D617" s="9">
+        <v>20202365</v>
+      </c>
+      <c r="E617" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F617" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G617" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H617" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I617" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J617" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K617" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L617" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M617" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="4">
+        <v>45585.55317457176</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C618" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D618" s="5">
+        <v>20223325</v>
+      </c>
+      <c r="E618" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G618" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H618" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I618" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J618" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K618" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L618" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N618" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="619" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="8">
+        <v>45585.556937407411</v>
+      </c>
+      <c r="B619" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C619" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D619" s="9">
+        <v>20242986</v>
+      </c>
+      <c r="E619" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F619" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G619" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H619" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I619" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J619" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K619" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L619" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N619" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="620" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="4">
+        <v>45585.564814733792</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C620" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D620" s="5">
+        <v>20227162</v>
+      </c>
+      <c r="E620" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G620" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H620" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I620" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J620" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K620" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L620" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N620" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="8">
+        <v>45585.570458472226</v>
+      </c>
+      <c r="B621" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C621" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D621" s="9">
+        <v>20242998</v>
+      </c>
+      <c r="E621" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F621" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G621" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H621" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I621" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J621" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K621" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L621" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M621" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="4">
+        <v>45585.579460428242</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C622" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D622" s="5">
+        <v>20232210</v>
+      </c>
+      <c r="E622" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G622" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H622" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I622" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J622" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K622" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L622" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N622" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="8">
+        <v>45585.582154293981</v>
+      </c>
+      <c r="B623" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C623" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D623" s="9">
+        <v>20231025</v>
+      </c>
+      <c r="E623" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F623" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G623" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H623" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I623" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J623" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K623" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L623" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N623" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="4">
+        <v>45585.583178634261</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C624" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D624" s="5">
+        <v>20243063</v>
+      </c>
+      <c r="E624" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G624" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H624" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I624" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J624" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K624" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L624" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M624" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A625" s="22">
+        <v>45585.587201585644</v>
+      </c>
+      <c r="B625" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C625" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D625" s="23">
+        <v>20171101</v>
+      </c>
+      <c r="E625" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F625" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G625" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H625" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I625" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J625" s="24">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K625" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L625" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M625" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N625" s="31"/>
+    </row>
+    <row r="626" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A626" s="4">
+        <v>45585.610260729169</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C626" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D626" s="5">
+        <v>20171035</v>
+      </c>
+      <c r="E626" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G626" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H626" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I626" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J626" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K626" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L626" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M626" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A627" s="8">
+        <v>45585.611452199075</v>
+      </c>
+      <c r="B627" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C627" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D627" s="9">
+        <v>20215108</v>
+      </c>
+      <c r="E627" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F627" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G627" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H627" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I627" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J627" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K627" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L627" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M627" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A628" s="4">
+        <v>45585.61516144676</v>
+      </c>
+      <c r="B628" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C628" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D628" s="5">
+        <v>20213235</v>
+      </c>
+      <c r="E628" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G628" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H628" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I628" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J628" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K628" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L628" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N628" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A629" s="8">
+        <v>45585.620288506943</v>
+      </c>
+      <c r="B629" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C629" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D629" s="9">
+        <v>20246262</v>
+      </c>
+      <c r="E629" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F629" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G629" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H629" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I629" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J629" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K629" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L629" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M629" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A630" s="4">
+        <v>45585.621941701393</v>
+      </c>
+      <c r="B630" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C630" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D630" s="5">
+        <v>20184132</v>
+      </c>
+      <c r="E630" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G630" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H630" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I630" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J630" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K630" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L630" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N630" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A631" s="8">
+        <v>45585.624910254628</v>
+      </c>
+      <c r="B631" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C631" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D631" s="9">
+        <v>20236739</v>
+      </c>
+      <c r="E631" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F631" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G631" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H631" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I631" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J631" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K631" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L631" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M631" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A632" s="4">
+        <v>45585.634220381944</v>
+      </c>
+      <c r="B632" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C632" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="D632" s="5">
+        <v>20201721</v>
+      </c>
+      <c r="E632" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G632" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H632" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I632" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J632" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K632" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L632" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M632" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="8">
+        <v>45585.644199999995</v>
+      </c>
+      <c r="B633" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C633" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D633" s="9">
+        <v>20243613</v>
+      </c>
+      <c r="E633" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F633" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G633" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H633" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I633" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J633" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K633" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L633" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N633" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A634" s="4">
+        <v>45585.657483692128</v>
+      </c>
+      <c r="B634" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C634" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D634" s="5">
+        <v>20196638</v>
+      </c>
+      <c r="E634" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F634" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G634" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H634" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I634" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J634" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K634" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L634" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N634" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A635" s="8">
+        <v>45585.657763738425</v>
+      </c>
+      <c r="B635" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C635" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D635" s="9">
+        <v>20246640</v>
+      </c>
+      <c r="E635" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F635" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G635" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H635" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I635" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J635" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K635" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L635" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N635" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A636" s="4">
+        <v>45585.674003518521</v>
+      </c>
+      <c r="B636" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C636" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D636" s="5">
+        <v>20245117</v>
+      </c>
+      <c r="E636" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G636" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H636" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I636" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J636" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K636" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L636" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M636" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A637" s="8">
+        <v>45585.676065451393</v>
+      </c>
+      <c r="B637" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C637" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D637" s="9">
+        <v>20223611</v>
+      </c>
+      <c r="E637" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F637" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G637" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H637" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I637" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J637" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K637" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L637" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M637" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A638" s="4">
+        <v>45585.677337824076</v>
+      </c>
+      <c r="B638" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C638" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D638" s="5">
+        <v>20242848</v>
+      </c>
+      <c r="E638" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G638" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H638" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I638" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J638" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K638" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L638" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N638" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="8">
+        <v>45585.678223657407</v>
+      </c>
+      <c r="B639" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C639" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D639" s="9">
+        <v>20202994</v>
+      </c>
+      <c r="E639" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F639" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G639" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H639" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I639" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J639" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K639" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L639" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M639" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="4">
+        <v>45585.681916921298</v>
+      </c>
+      <c r="B640" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C640" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D640" s="5">
+        <v>20182919</v>
+      </c>
+      <c r="E640" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G640" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H640" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I640" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J640" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K640" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L640" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M640" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="641" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A641" s="8">
+        <v>45585.691068252316</v>
+      </c>
+      <c r="B641" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C641" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D641" s="9">
+        <v>20243529</v>
+      </c>
+      <c r="E641" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F641" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G641" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H641" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I641" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J641" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K641" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L641" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N641" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="642" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A642" s="4">
+        <v>45585.696231898153</v>
+      </c>
+      <c r="B642" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C642" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D642" s="5">
+        <v>20243973</v>
+      </c>
+      <c r="E642" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G642" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H642" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I642" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J642" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K642" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L642" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M642" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A643" s="8">
+        <v>45585.696793495372</v>
+      </c>
+      <c r="B643" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C643" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D643" s="9">
+        <v>20202418</v>
+      </c>
+      <c r="E643" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F643" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G643" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H643" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I643" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J643" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K643" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L643" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M643" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="644" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A644" s="4">
+        <v>45585.701645624998</v>
+      </c>
+      <c r="B644" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C644" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D644" s="5">
+        <v>20217103</v>
+      </c>
+      <c r="E644" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F644" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G644" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H644" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I644" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J644" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K644" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L644" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N644" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A645" s="8">
+        <v>45585.714381689817</v>
+      </c>
+      <c r="B645" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C645" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D645" s="9">
+        <v>20246930</v>
+      </c>
+      <c r="E645" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F645" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G645" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H645" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I645" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J645" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K645" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L645" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M645" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A646" s="4">
+        <v>45585.714610659721</v>
+      </c>
+      <c r="B646" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C646" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D646" s="5">
+        <v>20246221</v>
+      </c>
+      <c r="E646" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G646" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H646" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I646" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J646" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K646" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L646" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N646" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A647" s="8">
+        <v>45585.718246863427</v>
+      </c>
+      <c r="B647" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C647" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D647" s="9">
+        <v>20231708</v>
+      </c>
+      <c r="E647" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F647" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G647" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H647" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I647" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J647" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K647" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L647" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M647" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="648" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A648" s="4">
+        <v>45585.718992060181</v>
+      </c>
+      <c r="B648" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C648" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D648" s="5">
+        <v>20231712</v>
+      </c>
+      <c r="E648" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G648" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H648" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I648" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J648" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K648" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L648" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M648" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="649" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A649" s="8">
+        <v>45585.721616550931</v>
+      </c>
+      <c r="B649" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C649" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D649" s="9">
+        <v>20212603</v>
+      </c>
+      <c r="E649" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F649" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G649" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H649" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I649" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J649" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K649" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L649" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M649" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A650" s="4">
+        <v>45585.72216449074</v>
+      </c>
+      <c r="B650" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C650" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D650" s="5">
+        <v>20241520</v>
+      </c>
+      <c r="E650" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G650" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H650" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I650" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J650" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K650" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L650" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N650" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="651" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A651" s="8">
+        <v>45585.725162407412</v>
+      </c>
+      <c r="B651" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C651" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D651" s="9">
+        <v>20227073</v>
+      </c>
+      <c r="E651" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F651" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G651" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H651" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I651" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J651" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K651" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L651" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M651" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A652" s="4">
+        <v>45585.727084583334</v>
+      </c>
+      <c r="B652" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C652" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D652" s="5">
+        <v>20235180</v>
+      </c>
+      <c r="E652" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G652" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H652" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I652" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J652" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K652" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L652" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N652" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A653" s="8">
+        <v>45585.728175891199</v>
+      </c>
+      <c r="B653" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C653" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D653" s="9">
+        <v>20202564</v>
+      </c>
+      <c r="E653" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F653" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G653" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H653" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I653" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J653" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K653" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L653" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M653" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="654" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A654" s="4">
+        <v>45585.729050104172</v>
+      </c>
+      <c r="B654" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C654" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D654" s="5">
+        <v>20223605</v>
+      </c>
+      <c r="E654" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F654" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G654" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H654" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I654" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J654" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K654" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L654" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N654" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="655" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A655" s="8">
+        <v>45585.731421990742</v>
+      </c>
+      <c r="B655" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C655" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D655" s="9">
+        <v>20242109</v>
+      </c>
+      <c r="E655" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F655" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G655" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H655" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I655" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J655" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K655" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L655" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N655" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="656" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A656" s="4">
+        <v>45585.732232199072</v>
+      </c>
+      <c r="B656" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C656" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D656" s="5">
+        <v>20231720</v>
+      </c>
+      <c r="E656" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G656" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H656" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I656" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J656" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K656" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L656" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N656" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="657" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A657" s="8">
+        <v>45585.733510543985</v>
+      </c>
+      <c r="B657" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C657" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D657" s="9">
+        <v>20234110</v>
+      </c>
+      <c r="E657" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F657" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G657" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H657" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I657" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J657" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K657" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L657" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M657" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="658" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A658" s="17">
+        <v>45585.746509085649</v>
+      </c>
+      <c r="B658" s="18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C658" s="18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D658" s="18">
+        <v>20243214</v>
+      </c>
+      <c r="E658" s="18" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F658" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G658" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H658" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I658" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J658" s="19">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K658" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L658" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M658" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N658" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/R/data/quiz241007.xlsx
+++ b/R/data/quiz241007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Documents/class202402/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE5750C-B9B6-9D44-AB81-9011F4E0F89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE189255-6B45-7541-900C-C0EAA378FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51880" yWindow="1800" windowWidth="40740" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6583" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7373" uniqueCount="1606">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4363,6 +4363,483 @@
   </si>
   <si>
     <t>김영민</t>
+  </si>
+  <si>
+    <t>jjhjo2070@gmail.com</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>조정훈</t>
+  </si>
+  <si>
+    <t>kje9714@gmail.com</t>
+  </si>
+  <si>
+    <t>김재은</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
+  </si>
+  <si>
+    <t>dream03064@gmail.com</t>
+  </si>
+  <si>
+    <t>오채연</t>
+  </si>
+  <si>
+    <t>kty030122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>dohojun1206@gmail.com</t>
+  </si>
+  <si>
+    <t>도호준</t>
+  </si>
+  <si>
+    <t>kby5432@naver.com</t>
+  </si>
+  <si>
+    <t>윤경빈</t>
+  </si>
+  <si>
+    <t>ahry60006@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>yu_min1220@naver.com</t>
+  </si>
+  <si>
+    <t>황유민</t>
+  </si>
+  <si>
+    <t>uek2002@naver.com</t>
+  </si>
+  <si>
+    <t>김기조</t>
+  </si>
+  <si>
+    <t>wjdtn2445@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>dong45657@gmail.com</t>
+  </si>
+  <si>
+    <t>채동엽</t>
+  </si>
+  <si>
+    <t>vldzmgha0609@naver.com</t>
+  </si>
+  <si>
+    <t>김지수</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>rabbit1657@gmail.com</t>
+  </si>
+  <si>
+    <t>이예원</t>
+  </si>
+  <si>
+    <t>bottom0406@gmail.com</t>
+  </si>
+  <si>
+    <t>박문형</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>sua@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김수아</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>ljk2942@gmail.com</t>
+  </si>
+  <si>
+    <t>이재권</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">디지털미디어콘텐츠 </t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>ade1125@naver.com</t>
+  </si>
+  <si>
+    <t>안다은</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>dudlrls@kakao.com</t>
+  </si>
+  <si>
+    <t>안여름</t>
+  </si>
+  <si>
+    <t>kimw0707@naver.com</t>
+  </si>
+  <si>
+    <t>김원영</t>
+  </si>
+  <si>
+    <t>featherkim@naver.com</t>
+  </si>
+  <si>
+    <t>김향수</t>
+  </si>
+  <si>
+    <t>aldidhd1112@naver.com</t>
+  </si>
+  <si>
+    <t>권효서</t>
+  </si>
+  <si>
+    <t>kjh54088@gmail.com</t>
+  </si>
+  <si>
+    <t>김재희</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예</t>
+  </si>
+  <si>
+    <t>wendy040507@naver.com</t>
+  </si>
+  <si>
+    <t>tpdkdb0401@gmail.com</t>
+  </si>
+  <si>
+    <t>유세아</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>namjihk@gmail.com</t>
+  </si>
+  <si>
+    <t>남지혁</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
+  </si>
+  <si>
+    <t>kwakmin427@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민규</t>
+  </si>
+  <si>
+    <t>leehanseo0521@naver.com</t>
+  </si>
+  <si>
+    <t>이한서</t>
+  </si>
+  <si>
+    <t>s707876@gmail.com</t>
+  </si>
+  <si>
+    <t>한채민</t>
+  </si>
+  <si>
+    <t>hshhsh0774@gmail.com</t>
+  </si>
+  <si>
+    <t>한승호</t>
+  </si>
+  <si>
+    <t>nalary2003@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>cardinal0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김수환</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>dldpwls5245@naver.com</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>pintang767@gmail.com</t>
+  </si>
+  <si>
+    <t>당빈</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>lattace05@gmail.com</t>
+  </si>
+  <si>
+    <t>최동희</t>
+  </si>
+  <si>
+    <t>a01075976680@gmail.com</t>
+  </si>
+  <si>
+    <t>김우진</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>jinsol.oh84@gmail.com</t>
+  </si>
+  <si>
+    <t>오진솔</t>
+  </si>
+  <si>
+    <t>lyjo0721@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>h20216510@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>AI기술경영융합전공</t>
+  </si>
+  <si>
+    <t>김지인</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>gordon0625@naver.com</t>
+  </si>
+  <si>
+    <t>김승재</t>
+  </si>
+  <si>
+    <t>ueusudjsjsksksk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소프트웨어학부</t>
+  </si>
+  <si>
+    <t>강동현</t>
+  </si>
+  <si>
+    <t>xluwq264@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>simple4940@gmail.com</t>
+  </si>
+  <si>
+    <t>조민</t>
+  </si>
+  <si>
+    <t>tommy58011@gmail.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>tonykim0703@gmail.com</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>kentoku0901@naver.com</t>
+  </si>
+  <si>
+    <t>김헌덕</t>
+  </si>
+  <si>
+    <t>sehyun1901@gmail.com</t>
+  </si>
+  <si>
+    <t>임세현</t>
+  </si>
+  <si>
+    <t>pugagi77@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성화</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>ghksltjrl@naver.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>sasa8294@naver.com</t>
+  </si>
+  <si>
+    <t>신승환</t>
+  </si>
+  <si>
+    <t>kuse9714@gmail.com</t>
+  </si>
+  <si>
+    <t>shimyuna14@gmail.com</t>
+  </si>
+  <si>
+    <t>심유나</t>
   </si>
 </sst>
 </file>
@@ -4836,7 +5313,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N658" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:N737" headerRowCount="0">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -5063,11 +5540,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N658"/>
+  <dimension ref="A1:N737"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C670" sqref="C670"/>
+      <pane ySplit="1" topLeftCell="A692" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E742" sqref="E742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29967,7 +30444,6 @@
       <c r="M605" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N605" s="31"/>
     </row>
     <row r="606" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="4">
@@ -30788,7 +31264,6 @@
       <c r="M625" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="N625" s="31"/>
     </row>
     <row r="626" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="4">
@@ -32142,7 +32617,3247 @@
       <c r="M658" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N658" s="31"/>
+    </row>
+    <row r="659" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A659" s="8">
+        <v>45585.748970034721</v>
+      </c>
+      <c r="B659" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C659" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D659" s="9">
+        <v>20241536</v>
+      </c>
+      <c r="E659" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F659" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G659" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H659" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I659" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J659" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K659" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L659" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M659" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="660" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A660" s="4">
+        <v>45585.751904988429</v>
+      </c>
+      <c r="B660" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C660" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D660" s="5">
+        <v>20233509</v>
+      </c>
+      <c r="E660" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G660" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H660" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I660" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J660" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K660" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L660" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N660" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="661" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A661" s="8">
+        <v>45585.755447465279</v>
+      </c>
+      <c r="B661" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C661" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D661" s="9">
+        <v>20243032</v>
+      </c>
+      <c r="E661" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F661" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G661" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H661" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I661" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J661" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K661" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L661" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N661" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="662" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A662" s="4">
+        <v>45585.756838819449</v>
+      </c>
+      <c r="B662" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C662" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D662" s="5">
+        <v>20242230</v>
+      </c>
+      <c r="E662" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H662" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I662" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J662" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K662" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L662" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M662" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="663" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A663" s="8">
+        <v>45585.762476493052</v>
+      </c>
+      <c r="B663" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C663" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D663" s="9">
+        <v>20245176</v>
+      </c>
+      <c r="E663" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F663" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G663" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H663" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I663" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J663" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K663" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L663" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M663" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="664" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A664" s="4">
+        <v>45585.763522986112</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D664" s="5">
+        <v>20242625</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H664" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I664" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J664" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K664" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L664" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M664" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="665" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A665" s="8">
+        <v>45585.775347569448</v>
+      </c>
+      <c r="B665" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C665" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D665" s="9">
+        <v>20243927</v>
+      </c>
+      <c r="E665" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F665" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G665" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H665" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I665" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J665" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K665" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L665" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M665" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A666" s="4">
+        <v>45585.779948506941</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D666" s="5">
+        <v>20214113</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H666" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I666" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J666" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K666" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L666" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M666" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A667" s="8">
+        <v>45585.781892164348</v>
+      </c>
+      <c r="B667" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C667" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D667" s="9">
+        <v>20243711</v>
+      </c>
+      <c r="E667" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F667" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G667" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H667" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I667" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J667" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K667" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L667" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N667" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A668" s="4">
+        <v>45585.7868203588</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D668" s="5">
+        <v>20192737</v>
+      </c>
+      <c r="E668" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H668" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I668" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J668" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K668" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L668" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M668" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A669" s="8">
+        <v>45585.788225370372</v>
+      </c>
+      <c r="B669" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C669" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D669" s="9">
+        <v>20202708</v>
+      </c>
+      <c r="E669" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F669" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G669" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H669" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I669" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J669" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K669" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L669" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N669" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A670" s="4">
+        <v>45585.790905150461</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D670" s="5">
+        <v>20243368</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H670" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I670" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J670" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K670" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L670" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M670" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A671" s="8">
+        <v>45585.793665069446</v>
+      </c>
+      <c r="B671" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C671" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D671" s="9">
+        <v>20233908</v>
+      </c>
+      <c r="E671" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F671" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G671" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H671" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I671" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J671" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K671" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L671" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M671" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A672" s="4">
+        <v>45585.797037777782</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D672" s="5">
+        <v>20227103</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G672" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H672" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I672" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J672" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K672" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L672" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N672" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A673" s="8">
+        <v>45585.803892650467</v>
+      </c>
+      <c r="B673" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C673" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D673" s="9">
+        <v>20242513</v>
+      </c>
+      <c r="E673" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F673" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G673" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H673" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I673" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J673" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K673" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L673" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M673" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A674" s="4">
+        <v>45585.808650416671</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D674" s="5">
+        <v>20233412</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G674" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H674" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I674" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J674" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K674" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L674" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N674" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A675" s="8">
+        <v>45585.810081932868</v>
+      </c>
+      <c r="B675" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C675" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D675" s="9">
+        <v>20222902</v>
+      </c>
+      <c r="E675" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F675" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G675" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H675" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I675" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J675" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K675" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N675" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A676" s="4">
+        <v>45585.812395127316</v>
+      </c>
+      <c r="B676" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C676" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D676" s="5">
+        <v>20193429</v>
+      </c>
+      <c r="E676" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F676" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G676" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H676" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I676" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J676" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K676" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L676" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N676" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A677" s="8">
+        <v>45585.815023009258</v>
+      </c>
+      <c r="B677" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C677" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D677" s="9">
+        <v>20227039</v>
+      </c>
+      <c r="E677" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F677" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G677" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H677" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I677" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J677" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K677" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L677" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N677" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A678" s="4">
+        <v>45585.817981446758</v>
+      </c>
+      <c r="B678" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C678" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D678" s="5">
+        <v>20202406</v>
+      </c>
+      <c r="E678" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F678" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G678" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H678" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I678" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J678" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K678" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L678" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N678" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A679" s="8">
+        <v>45585.822070810187</v>
+      </c>
+      <c r="B679" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C679" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D679" s="9">
+        <v>20243939</v>
+      </c>
+      <c r="E679" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F679" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G679" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H679" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I679" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J679" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K679" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L679" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M679" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="680" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A680" s="4">
+        <v>45585.826036597224</v>
+      </c>
+      <c r="B680" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C680" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D680" s="5">
+        <v>20242616</v>
+      </c>
+      <c r="E680" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F680" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G680" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H680" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I680" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J680" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K680" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L680" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M680" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A681" s="8">
+        <v>45585.827297662036</v>
+      </c>
+      <c r="B681" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C681" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D681" s="9">
+        <v>20243432</v>
+      </c>
+      <c r="E681" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F681" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G681" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H681" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I681" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J681" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K681" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L681" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M681" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A682" s="4">
+        <v>45585.828269618054</v>
+      </c>
+      <c r="B682" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C682" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D682" s="5">
+        <v>20243844</v>
+      </c>
+      <c r="E682" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="F682" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G682" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H682" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I682" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J682" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K682" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L682" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M682" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A683" s="8">
+        <v>45585.829296087963</v>
+      </c>
+      <c r="B683" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C683" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D683" s="9">
+        <v>20203507</v>
+      </c>
+      <c r="E683" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F683" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G683" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H683" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I683" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J683" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K683" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L683" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N683" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A684" s="4">
+        <v>45585.831836435187</v>
+      </c>
+      <c r="B684" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C684" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D684" s="5">
+        <v>20243703</v>
+      </c>
+      <c r="E684" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F684" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G684" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H684" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I684" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J684" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K684" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L684" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N684" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A685" s="8">
+        <v>45585.836346944445</v>
+      </c>
+      <c r="B685" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C685" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D685" s="9">
+        <v>20232238</v>
+      </c>
+      <c r="E685" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F685" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G685" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H685" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I685" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J685" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K685" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L685" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N685" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A686" s="4">
+        <v>45585.836641863425</v>
+      </c>
+      <c r="B686" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D686" s="5">
+        <v>20241224</v>
+      </c>
+      <c r="E686" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G686" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H686" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I686" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J686" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K686" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L686" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N686" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A687" s="8">
+        <v>45585.838586840277</v>
+      </c>
+      <c r="B687" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C687" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D687" s="9">
+        <v>20213230</v>
+      </c>
+      <c r="E687" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F687" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G687" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H687" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I687" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J687" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K687" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L687" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N687" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A688" s="4">
+        <v>45585.838951817132</v>
+      </c>
+      <c r="B688" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D688" s="5">
+        <v>20212549</v>
+      </c>
+      <c r="E688" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G688" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H688" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I688" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J688" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K688" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L688" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N688" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="689" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A689" s="8">
+        <v>45585.839776574074</v>
+      </c>
+      <c r="B689" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C689" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D689" s="9">
+        <v>20232548</v>
+      </c>
+      <c r="E689" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F689" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G689" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H689" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I689" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J689" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K689" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L689" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N689" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A690" s="4">
+        <v>45585.842065567129</v>
+      </c>
+      <c r="B690" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D690" s="5">
+        <v>20246614</v>
+      </c>
+      <c r="E690" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G690" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H690" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I690" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J690" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K690" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L690" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N690" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A691" s="8">
+        <v>45585.843313715275</v>
+      </c>
+      <c r="B691" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C691" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D691" s="9">
+        <v>20243426</v>
+      </c>
+      <c r="E691" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F691" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G691" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H691" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I691" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J691" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K691" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L691" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M691" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A692" s="4">
+        <v>45585.843635254627</v>
+      </c>
+      <c r="B692" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D692" s="5">
+        <v>20212736</v>
+      </c>
+      <c r="E692" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G692" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H692" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I692" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J692" s="6">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K692" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L692" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N692" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A693" s="8">
+        <v>45585.845491979169</v>
+      </c>
+      <c r="B693" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C693" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D693" s="9">
+        <v>20245138</v>
+      </c>
+      <c r="E693" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F693" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G693" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H693" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I693" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J693" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K693" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L693" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M693" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A694" s="4">
+        <v>45585.845646828704</v>
+      </c>
+      <c r="B694" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D694" s="5">
+        <v>20233310</v>
+      </c>
+      <c r="E694" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G694" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H694" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I694" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J694" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K694" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L694" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N694" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A695" s="8">
+        <v>45585.855549756947</v>
+      </c>
+      <c r="B695" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C695" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D695" s="9">
+        <v>20172808</v>
+      </c>
+      <c r="E695" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F695" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G695" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H695" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I695" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J695" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K695" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L695" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N695" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A696" s="4">
+        <v>45585.857034236113</v>
+      </c>
+      <c r="B696" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C696" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D696" s="5">
+        <v>20243216</v>
+      </c>
+      <c r="E696" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F696" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G696" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H696" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I696" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J696" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K696" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L696" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N696" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A697" s="8">
+        <v>45585.860625960646</v>
+      </c>
+      <c r="B697" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C697" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D697" s="9">
+        <v>20236121</v>
+      </c>
+      <c r="E697" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F697" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G697" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H697" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I697" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J697" s="10">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K697" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L697" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M697" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="698" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A698" s="4">
+        <v>45585.861142210648</v>
+      </c>
+      <c r="B698" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C698" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D698" s="5">
+        <v>20243002</v>
+      </c>
+      <c r="E698" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F698" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G698" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H698" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I698" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J698" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K698" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L698" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M698" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="699" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A699" s="8">
+        <v>45585.863981585644</v>
+      </c>
+      <c r="B699" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C699" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D699" s="9">
+        <v>20235213</v>
+      </c>
+      <c r="E699" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F699" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G699" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H699" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I699" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J699" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K699" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L699" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M699" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="700" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A700" s="4">
+        <v>45585.865996678243</v>
+      </c>
+      <c r="B700" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C700" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D700" s="5">
+        <v>20243951</v>
+      </c>
+      <c r="E700" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F700" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G700" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H700" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I700" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J700" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K700" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L700" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M700" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="701" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A701" s="8">
+        <v>45585.866148854169</v>
+      </c>
+      <c r="B701" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C701" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D701" s="9">
+        <v>20242944</v>
+      </c>
+      <c r="E701" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F701" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G701" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H701" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I701" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J701" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K701" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L701" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M701" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="702" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A702" s="4">
+        <v>45585.870769317131</v>
+      </c>
+      <c r="B702" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C702" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D702" s="5">
+        <v>20227037</v>
+      </c>
+      <c r="E702" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F702" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G702" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H702" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I702" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J702" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K702" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L702" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M702" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="703" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A703" s="8">
+        <v>45585.871197083332</v>
+      </c>
+      <c r="B703" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C703" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D703" s="9">
+        <v>20245259</v>
+      </c>
+      <c r="E703" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F703" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G703" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H703" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I703" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J703" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K703" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L703" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M703" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="704" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A704" s="4">
+        <v>45585.876561053243</v>
+      </c>
+      <c r="B704" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C704" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D704" s="5">
+        <v>20243605</v>
+      </c>
+      <c r="E704" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F704" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G704" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H704" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I704" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J704" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K704" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L704" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N704" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="705" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A705" s="8">
+        <v>45585.881654942132</v>
+      </c>
+      <c r="B705" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C705" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D705" s="9">
+        <v>20246283</v>
+      </c>
+      <c r="E705" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F705" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G705" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H705" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I705" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J705" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K705" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L705" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N705" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="706" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A706" s="4">
+        <v>45585.882213113422</v>
+      </c>
+      <c r="B706" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C706" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D706" s="5">
+        <v>20242241</v>
+      </c>
+      <c r="E706" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F706" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G706" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H706" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I706" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J706" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K706" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L706" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M706" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="707" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A707" s="8">
+        <v>45585.882507951392</v>
+      </c>
+      <c r="B707" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C707" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D707" s="9">
+        <v>20196532</v>
+      </c>
+      <c r="E707" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F707" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G707" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H707" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I707" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J707" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K707" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L707" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N707" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="708" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A708" s="4">
+        <v>45585.883991261573</v>
+      </c>
+      <c r="B708" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C708" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D708" s="5">
+        <v>20242212</v>
+      </c>
+      <c r="E708" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F708" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G708" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H708" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I708" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J708" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K708" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L708" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M708" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="709" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A709" s="8">
+        <v>45585.885616053245</v>
+      </c>
+      <c r="B709" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C709" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D709" s="9">
+        <v>20243726</v>
+      </c>
+      <c r="E709" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F709" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G709" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H709" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I709" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J709" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K709" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L709" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M709" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="710" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A710" s="4">
+        <v>45585.886592129631</v>
+      </c>
+      <c r="B710" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C710" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D710" s="5">
+        <v>20242511</v>
+      </c>
+      <c r="E710" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F710" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G710" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H710" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I710" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J710" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K710" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L710" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N710" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="711" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A711" s="8">
+        <v>45585.887597870373</v>
+      </c>
+      <c r="B711" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C711" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D711" s="9">
+        <v>20202324</v>
+      </c>
+      <c r="E711" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F711" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G711" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H711" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I711" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J711" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K711" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L711" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M711" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="712" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A712" s="4">
+        <v>45585.888016157405</v>
+      </c>
+      <c r="B712" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C712" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D712" s="5">
+        <v>20246909</v>
+      </c>
+      <c r="E712" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F712" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G712" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H712" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I712" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J712" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K712" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L712" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M712" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="713" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A713" s="8">
+        <v>45585.888603993051</v>
+      </c>
+      <c r="B713" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C713" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D713" s="9">
+        <v>20182747</v>
+      </c>
+      <c r="E713" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F713" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G713" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H713" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I713" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J713" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K713" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L713" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M713" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="714" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A714" s="4">
+        <v>45585.891318321759</v>
+      </c>
+      <c r="B714" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C714" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D714" s="5">
+        <v>20191514</v>
+      </c>
+      <c r="E714" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F714" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G714" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H714" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I714" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J714" s="6">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K714" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L714" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N714" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A715" s="8">
+        <v>45585.891889953702</v>
+      </c>
+      <c r="B715" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C715" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D715" s="9">
+        <v>20242753</v>
+      </c>
+      <c r="E715" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F715" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G715" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H715" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I715" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J715" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K715" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L715" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N715" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="716" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A716" s="4">
+        <v>45585.893751481482</v>
+      </c>
+      <c r="B716" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C716" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D716" s="5">
+        <v>20242439</v>
+      </c>
+      <c r="E716" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F716" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G716" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H716" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I716" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J716" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="K716" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L716" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N716" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="717" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A717" s="8">
+        <v>45585.894767500002</v>
+      </c>
+      <c r="B717" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C717" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D717" s="9">
+        <v>20243309</v>
+      </c>
+      <c r="E717" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F717" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G717" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H717" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I717" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J717" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K717" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L717" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M717" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="718" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A718" s="4">
+        <v>45585.896956817131</v>
+      </c>
+      <c r="B718" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C718" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D718" s="5">
+        <v>20246769</v>
+      </c>
+      <c r="E718" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F718" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G718" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H718" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I718" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J718" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K718" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L718" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N718" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="719" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A719" s="8">
+        <v>45585.898551435181</v>
+      </c>
+      <c r="B719" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C719" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D719" s="9">
+        <v>20242987</v>
+      </c>
+      <c r="E719" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F719" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G719" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H719" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I719" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J719" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K719" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L719" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N719" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="720" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A720" s="4">
+        <v>45585.898681851853</v>
+      </c>
+      <c r="B720" s="5" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C720" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D720" s="5">
+        <v>20225218</v>
+      </c>
+      <c r="E720" s="5" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F720" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G720" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H720" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I720" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J720" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K720" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L720" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N720" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A721" s="8">
+        <v>45585.89869721065</v>
+      </c>
+      <c r="B721" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C721" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D721" s="9">
+        <v>20216510</v>
+      </c>
+      <c r="E721" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F721" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G721" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H721" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I721" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J721" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K721" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L721" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M721" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="722" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A722" s="4">
+        <v>45585.898869733792</v>
+      </c>
+      <c r="B722" s="5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C722" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D722" s="5">
+        <v>20243721</v>
+      </c>
+      <c r="E722" s="5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F722" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G722" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H722" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I722" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J722" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K722" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L722" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M722" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="723" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A723" s="8">
+        <v>45585.899203726847</v>
+      </c>
+      <c r="B723" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C723" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D723" s="9">
+        <v>20245131</v>
+      </c>
+      <c r="E723" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F723" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G723" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H723" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I723" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J723" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K723" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L723" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M723" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="724" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A724" s="4">
+        <v>45585.900398900463</v>
+      </c>
+      <c r="B724" s="5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C724" s="5" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D724" s="5">
+        <v>20245102</v>
+      </c>
+      <c r="E724" s="5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F724" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G724" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H724" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I724" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J724" s="6">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="K724" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L724" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N724" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="725" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A725" s="8">
+        <v>45585.901417986111</v>
+      </c>
+      <c r="B725" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C725" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D725" s="9">
+        <v>20233048</v>
+      </c>
+      <c r="E725" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F725" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G725" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H725" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I725" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J725" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K725" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L725" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N725" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="726" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A726" s="4">
+        <v>45585.901953587963</v>
+      </c>
+      <c r="B726" s="5" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C726" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D726" s="5">
+        <v>20217173</v>
+      </c>
+      <c r="E726" s="5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F726" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G726" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H726" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I726" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J726" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K726" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L726" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M726" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="727" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A727" s="22">
+        <v>45585.90451980324</v>
+      </c>
+      <c r="B727" s="23" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C727" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D727" s="23">
+        <v>20242420</v>
+      </c>
+      <c r="E727" s="23" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F727" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G727" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H727" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I727" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J727" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K727" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L727" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M727" s="31"/>
+      <c r="N727" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A728" s="4">
+        <v>45585.90610359954</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C728" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D728" s="5">
+        <v>20202106</v>
+      </c>
+      <c r="E728" s="5" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F728" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G728" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H728" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I728" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J728" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K728" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L728" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N728" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A729" s="8">
+        <v>45585.907001064814</v>
+      </c>
+      <c r="B729" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C729" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D729" s="9">
+        <v>20213709</v>
+      </c>
+      <c r="E729" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F729" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G729" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H729" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I729" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J729" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K729" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L729" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M729" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="730" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A730" s="4">
+        <v>45585.908720312495</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C730" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D730" s="5">
+        <v>20242314</v>
+      </c>
+      <c r="E730" s="5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F730" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G730" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H730" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I730" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J730" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K730" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L730" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N730" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="731" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A731" s="8">
+        <v>45585.909398414355</v>
+      </c>
+      <c r="B731" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C731" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D731" s="9">
+        <v>20243020</v>
+      </c>
+      <c r="E731" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F731" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G731" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H731" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I731" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J731" s="10">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="K731" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L731" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N731" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A732" s="4">
+        <v>45585.909978009258</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C732" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D732" s="5">
+        <v>20223739</v>
+      </c>
+      <c r="E732" s="5" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F732" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G732" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H732" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I732" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J732" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K732" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L732" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M732" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="733" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A733" s="8">
+        <v>45585.912289398148</v>
+      </c>
+      <c r="B733" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C733" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D733" s="9">
+        <v>20212827</v>
+      </c>
+      <c r="E733" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F733" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G733" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H733" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I733" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J733" s="10">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K733" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L733" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M733" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="734" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A734" s="4">
+        <v>45585.912431319448</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C734" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D734" s="5">
+        <v>20215212</v>
+      </c>
+      <c r="E734" s="5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="F734" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G734" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H734" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I734" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J734" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K734" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L734" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N734" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="735" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A735" s="8">
+        <v>45585.91296037037</v>
+      </c>
+      <c r="B735" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C735" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D735" s="9">
+        <v>20193226</v>
+      </c>
+      <c r="E735" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="F735" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G735" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H735" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I735" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J735" s="10">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K735" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L735" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M735" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="736" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A736" s="4">
+        <v>45585.91356601852</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C736" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D736" s="5">
+        <v>20203908</v>
+      </c>
+      <c r="E736" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F736" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G736" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H736" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I736" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J736" s="6">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K736" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L736" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N736" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="737" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A737" s="22">
+        <v>45585.916102731484</v>
+      </c>
+      <c r="B737" s="23" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C737" s="23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D737" s="23">
+        <v>20223520</v>
+      </c>
+      <c r="E737" s="23" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F737" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G737" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H737" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I737" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J737" s="24">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="K737" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L737" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M737" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N737" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
